--- a/app/src/main/res/raw/blessing_09182020_revised.xlsx
+++ b/app/src/main/res/raw/blessing_09182020_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5255DF81-787F-4C86-AB07-DD08B8C4753D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77765723-C997-4D7F-8A9B-A1B338902F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="276">
   <si>
     <t>Voice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,18 +224,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SectionC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SectionB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Review2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Review1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,10 +505,6 @@
     <t>I came with thousands of believers to help others in need of help in return for my answered prayer.</t>
   </si>
   <si>
-    <t>blessing20-1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> The old man finally asked the girl's mom what blessings she would like to have from the Goddess of Sea. The girl's mom said loudly,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,10 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>blessing21-1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I wish that my daughter could live happily and healthily forever.</t>
   </si>
   <si>
@@ -539,10 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>blessing22-1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Where do the blessings come from?</t>
   </si>
   <si>
@@ -553,10 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>blessing23-1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>My dear, blessings may come through raindrops. Blessings may come through tears.  Blessings are not from strangers or goddesses but from the bottom of your heart for those you love.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,6 +1057,22 @@
   </si>
   <si>
     <t>review_section.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing20_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing21_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing22_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing23_1.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1606,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1619,24 +1611,18 @@
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1636,7 @@
   <dimension ref="A1:EC17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1845,7 +1831,7 @@
       <c r="EB1" s="22"/>
       <c r="EC1" s="22"/>
     </row>
-    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:133" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2261,22 +2247,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2291,7 +2277,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -2305,7 +2291,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
@@ -2320,7 +2306,7 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
@@ -2335,16 +2321,16 @@
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BI5" s="20" t="s">
         <v>265</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="BH5" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="BI5" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
@@ -2593,97 +2579,97 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
       <c r="AV7" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AW7" s="3"/>
       <c r="AX7" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AY7" s="3"/>
       <c r="AZ7" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
@@ -2692,7 +2678,7 @@
       <c r="BI7" s="20"/>
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="BL7" s="22"/>
       <c r="BM7" s="22"/>
@@ -2953,187 +2939,187 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="U9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI9" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AN9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AP9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AR9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AT9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AH9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AU9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AJ9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AW9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI9" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="AL9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX9" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD9" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="BE9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BI9" s="20" t="s">
-        <v>168</v>
-      </c>
       <c r="BJ9" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BK9" s="3"/>
       <c r="BL9" s="24"/>
@@ -3471,187 +3457,187 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM11" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AN11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AA11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AP11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AC11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AR11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AT11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AH11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AU11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV11" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AJ11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AW11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX11" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AL11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AY11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AN11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO11" s="3" t="s">
+      <c r="BA11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB11" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AP11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
+      <c r="BC11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AR11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS11" s="3" t="s">
+      <c r="BE11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AT11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ11" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB11" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD11" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF11" s="3" t="s">
+      <c r="BG11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BG11" s="3" t="s">
+      <c r="BH11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="BH11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BI11" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="BJ11" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="BK11" s="3"/>
       <c r="BL11" s="24"/>
@@ -3989,128 +3975,128 @@
         <v>40</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AC13" s="3"/>
       <c r="AD13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AR13" s="3"/>
       <c r="AS13" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AT13" s="16"/>
       <c r="AU13" s="3"/>
       <c r="AV13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AW13" s="3"/>
       <c r="AX13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AY13" s="3"/>
       <c r="AZ13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="BA13" s="4"/>
       <c r="BB13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="BC13" s="3"/>
       <c r="BD13" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="BE13" s="3"/>
       <c r="BF13" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="BG13" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="BH13" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="BI13" s="27" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="BJ13" s="9"/>
       <c r="BK13" s="3"/>
@@ -4798,8 +4784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -4927,88 +4913,88 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="T3" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="Z3" s="3" t="s">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
@@ -5123,74 +5109,74 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AA5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="AC5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="6"/>
@@ -5288,40 +5274,40 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -5333,11 +5319,11 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
@@ -5400,7 +5386,9 @@
         <v>214</v>
       </c>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
+      <c r="AF8" s="3">
+        <v>219</v>
+      </c>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
@@ -5413,93 +5401,93 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="R9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="T9" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="W9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="AB9" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
@@ -5613,7 +5601,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -5625,7 +5613,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>15</v>
@@ -5634,72 +5622,72 @@
         <v>22</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="T11" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="W11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="AB11" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -5810,76 +5798,76 @@
     </row>
     <row r="13" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="15" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="15" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="R13" s="16"/>
       <c r="S13" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="T13" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
@@ -6084,25 +6072,25 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6147,7 +6135,7 @@
         <v>24</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -6155,7 +6143,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>45</v>
@@ -6183,7 +6171,7 @@
         <v>37</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -6191,7 +6179,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>46</v>
@@ -6204,30 +6192,30 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="28" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>46</v>
@@ -6240,30 +6228,30 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="28" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>37</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>46</v>
@@ -6276,30 +6264,30 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="28" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>45</v>
@@ -6308,34 +6296,34 @@
         <v>34</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>45</v>
@@ -6344,16 +6332,16 @@
         <v>34</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
@@ -6363,15 +6351,15 @@
         <v>38</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>45</v>
@@ -6380,26 +6368,26 @@
         <v>34</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6650,59 +6638,59 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -6811,42 +6799,42 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -6940,76 +6928,76 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="U9" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>234</v>
-      </c>
       <c r="X9" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -7232,76 +7220,76 @@
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -7423,44 +7411,44 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="4"/>
       <c r="T15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>

--- a/app/src/main/res/raw/blessing_09182020_revised.xlsx
+++ b/app/src/main/res/raw/blessing_09182020_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77765723-C997-4D7F-8A9B-A1B338902F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E19415-C1AC-4DB1-8B29-58D33DF76B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="275">
   <si>
     <t>Voice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,10 +779,6 @@
   </si>
   <si>
     <t>It seems that you are not familiar with the whole story. But it is fine. You got all answers correct finally. You did a great job! This is the end of the script!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NNrobotface.mp4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1600,7 +1596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2247,22 +2243,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2277,7 +2273,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -2291,7 +2287,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
@@ -2306,7 +2302,7 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
@@ -2321,16 +2317,16 @@
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BG5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH5" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BI5" s="20" t="s">
         <v>264</v>
-      </c>
-      <c r="BI5" s="20" t="s">
-        <v>265</v>
       </c>
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
@@ -2579,97 +2575,97 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
       <c r="AV7" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AW7" s="3"/>
       <c r="AX7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AY7" s="3"/>
       <c r="AZ7" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
@@ -2678,7 +2674,7 @@
       <c r="BI7" s="20"/>
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BL7" s="22"/>
       <c r="BM7" s="22"/>
@@ -3101,7 +3097,7 @@
         <v>64</v>
       </c>
       <c r="BD9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BE9" s="3" t="s">
         <v>64</v>
@@ -3975,128 +3971,128 @@
         <v>40</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC13" s="3"/>
       <c r="AD13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN13" s="9"/>
       <c r="AO13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AR13" s="3"/>
       <c r="AS13" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AT13" s="16"/>
       <c r="AU13" s="3"/>
       <c r="AV13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW13" s="3"/>
       <c r="AX13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY13" s="3"/>
       <c r="AZ13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BA13" s="4"/>
       <c r="BB13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BC13" s="3"/>
       <c r="BD13" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BE13" s="3"/>
       <c r="BF13" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="BG13" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="BG13" s="9" t="s">
+      <c r="BH13" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="BH13" s="9" t="s">
-        <v>211</v>
-      </c>
       <c r="BI13" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BJ13" s="9"/>
       <c r="BK13" s="3"/>
@@ -4973,25 +4969,25 @@
         <v>125</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>128</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>131</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>134</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>137</v>
@@ -5109,74 +5105,74 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="6"/>
@@ -5323,7 +5319,7 @@
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
@@ -5801,73 +5797,73 @@
         <v>56</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R13" s="16"/>
       <c r="S13" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
@@ -6143,7 +6139,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>45</v>
@@ -6179,7 +6175,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>46</v>
@@ -6192,16 +6188,16 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J3" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="L3" s="28" t="s">
         <v>230</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>231</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>38</v>
@@ -6215,7 +6211,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>46</v>
@@ -6228,16 +6224,16 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="L4" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>235</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>37</v>
@@ -6251,7 +6247,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>46</v>
@@ -6264,16 +6260,16 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="K5" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="L5" s="28" t="s">
         <v>238</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>239</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>38</v>
@@ -6287,7 +6283,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>45</v>
@@ -6323,7 +6319,7 @@
         <v>166</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>45</v>
@@ -6359,7 +6355,7 @@
         <v>167</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>45</v>
@@ -6401,8 +6397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AS16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -6632,65 +6628,65 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
     </row>
-    <row r="5" spans="1:45" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -6799,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
@@ -6928,7 +6924,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>197</v>
@@ -6937,7 +6933,7 @@
         <v>54</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>197</v>
@@ -6946,7 +6942,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>197</v>
@@ -6955,7 +6951,7 @@
         <v>54</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>197</v>
@@ -6964,37 +6960,37 @@
         <v>54</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>54</v>
@@ -7220,76 +7216,76 @@
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="P13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="R13" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="S13" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="T13" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="U13" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="V13" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="W13" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="X13" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="Y13" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -7531,6 +7527,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/src/main/res/raw/blessing_09182020_revised.xlsx
+++ b/app/src/main/res/raw/blessing_09182020_revised.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weatherProject\exercise\MyApplication\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E19415-C1AC-4DB1-8B29-58D33DF76B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E629BD7-8069-47D4-BE0B-86B352EB03CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="265">
   <si>
     <t>Voice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,76 +182,73 @@
   </si>
   <si>
     <t>Montion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Montion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Montion_clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montion_clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline (second)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline (second)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SectionA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SectionB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Review1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Bye! Bye!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Montion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Montion_clock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Montion_clock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timeline (second)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timeline (second)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SectionA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SectionB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Review1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Bye! Bye!"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Montion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hello! I am Kebbi! Let's work on our English today!</t>
   </si>
   <si>
@@ -326,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>She saw a great number of people with simple beddings sleeping under a big bridge, yet it was a rainy season.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,30 +655,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Picture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer1NN.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer2title.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer3title.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer4title.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer5NNN.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A. It's snowy.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,10 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>answer6NN.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A. She wants to be rich someday.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,10 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>answer7NN.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>congratulation1.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,285 +751,303 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>666_TA_YoL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congratulation0.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulation! Oh! You  got zero answer correct in total! keep working hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulation! Oh! You  got one answer correct in total! keep working hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulation! Oh! You  got two answers correct in total! keep working hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulation! Oh! You  got three answers correct in total! keep working hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulation! Oh! You  got four answers correct in total! Not bad!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulation! Oh! You  got five answers correct in total! Not bad!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulation! Oh! You  got six answers correct in total! Nice!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulation! Oh! You  got seven answers correct in total! Excellent!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sympathy.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worship.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humble.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reluctant.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lodging.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chores.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confusion.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parade.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sewing.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclaim.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generosity.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curiosity.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worship.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpersonal.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parade.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclaim.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sewing.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reluctant.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chores.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>murmur.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodate.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humble.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confusion.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raindrop.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sympathy.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generosity.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is explanation and it means the details or reasons that someone gives to make something clear or easy to understand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> lodging.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnrobotface.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutual_respect.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnrobotface.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invisible_and_untouchable.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnnoldman.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nngirl face.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnnwoman.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story_section.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voc_section.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nngirl_face.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angry_girl_fit.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnwomanface.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_section.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing20_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing21_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing22_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing23_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>666_EM_Sad01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>666_RE_Encourage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>666_RE_Bye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>666_EM_Happy01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>666_RE_Cheer</t>
-  </si>
-  <si>
-    <t>666_TA_YoL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_SP_Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_TA_DictateL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_PE_Sorcery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_PE_Puff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_EM_Fear01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_EM_Blush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_PE_Phubbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_LE_ListenSong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_PE_Hug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_SP_Gymnastics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>666_PE_Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>666_PE_Kiss</t>
-  </si>
-  <si>
-    <t>666_PE_Hug</t>
-  </si>
-  <si>
-    <t>666_PE_Phubbing</t>
-  </si>
-  <si>
-    <t>666_EM_Blush</t>
-  </si>
-  <si>
-    <t>666_SP_Run</t>
-  </si>
-  <si>
-    <t>666_TA_DictateL</t>
-  </si>
-  <si>
-    <t>666_PE_Sorcery</t>
-  </si>
-  <si>
-    <t>666_PE_Puff</t>
-  </si>
-  <si>
-    <t>666_EM_Fear01</t>
-  </si>
-  <si>
-    <t>666_LE_ListenSong</t>
-  </si>
-  <si>
-    <t>666_SP_Gymnastics</t>
-  </si>
-  <si>
-    <t>666_TA_YoL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congratulation0.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulation! Oh! You  got zero answer correct in total! keep working hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulation! Oh! You  got one answer correct in total! keep working hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulation! Oh! You  got two answers correct in total! keep working hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulation! Oh! You  got three answers correct in total! keep working hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulation! Oh! You  got four answers correct in total! Not bad!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulation! Oh! You  got five answers correct in total! Not bad!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulation! Oh! You  got six answers correct in total! Nice!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulation! Oh! You  got seven answers correct in total! Excellent!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sympathy.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worship.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>humble.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reluctant.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lodging.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spot.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chores.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confusion.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parade.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sewing.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclaim.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generosity.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curiosity.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worship.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interpersonal.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parade.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclaim.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sewing.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reluctant.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chores.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>murmur.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accommodate.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>humble.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confusion.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raindrop.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sympathy.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generosity.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is explanation and it means the details or reasons that someone gives to make something clear or easy to understand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explanation.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> lodging.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nnrobotface.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mutual_respect.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nnrobotface.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invisible_and_untouchable.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nnnoldman.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nngirl face.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nnnwoman.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>story_section.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voc_section.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nngirl_face.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angry_girl_fit.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nnwomanface.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_section.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blessing20_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blessing21_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blessing22_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blessing23_1.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1058,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1116,19 +1095,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -1140,34 +1106,6 @@
       <b/>
       <sz val="9.8000000000000007"/>
       <color rgb="FF6A8759"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Microsoft JhengHei UI Light"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.8000000000000007"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -1223,7 +1161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,15 +1189,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1268,21 +1197,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1299,13 +1213,10 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1596,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1609,16 +1520,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1632,58 +1543,74 @@
   <dimension ref="A1:EC17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="13.21875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="13.21875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="15.109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="15.5546875" style="5" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.21875" style="5" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" style="5" customWidth="1"/>
-    <col min="28" max="28" width="15.88671875" style="5" customWidth="1"/>
-    <col min="29" max="29" width="15.33203125" style="5" customWidth="1"/>
-    <col min="30" max="30" width="15.77734375" style="5" customWidth="1"/>
-    <col min="31" max="31" width="15.6640625" style="5" customWidth="1"/>
-    <col min="32" max="33" width="15.44140625" style="5" customWidth="1"/>
-    <col min="34" max="34" width="16.5546875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="18.6640625" style="5" customWidth="1"/>
-    <col min="36" max="37" width="15.5546875" style="5" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" style="5" customWidth="1"/>
-    <col min="39" max="39" width="14" style="5" customWidth="1"/>
-    <col min="40" max="40" width="10.77734375" style="5"/>
-    <col min="41" max="41" width="15.33203125" style="5" customWidth="1"/>
-    <col min="42" max="47" width="10.77734375" style="5"/>
-    <col min="48" max="48" width="16.33203125" style="5" customWidth="1"/>
-    <col min="49" max="49" width="10.77734375" style="5"/>
-    <col min="50" max="50" width="15.44140625" style="5" customWidth="1"/>
-    <col min="51" max="51" width="10.77734375" style="5"/>
-    <col min="52" max="52" width="18.33203125" style="5" customWidth="1"/>
-    <col min="53" max="55" width="10.77734375" style="5"/>
+    <col min="36" max="36" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="16.6640625" style="5" customWidth="1"/>
-    <col min="57" max="70" width="10.77734375" style="5"/>
+    <col min="57" max="57" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="64" max="70" width="10.77734375" style="5"/>
     <col min="71" max="71" width="15.77734375" style="5" customWidth="1"/>
     <col min="72" max="72" width="10.77734375" style="5"/>
     <col min="73" max="73" width="12.5546875" style="5" customWidth="1"/>
@@ -1753,81 +1680,81 @@
       <c r="BF1" s="3"/>
       <c r="BG1" s="3"/>
       <c r="BH1" s="3"/>
-      <c r="BI1" s="20"/>
+      <c r="BI1" s="12"/>
       <c r="BJ1" s="3"/>
       <c r="BK1" s="3"/>
-      <c r="BL1" s="22"/>
-      <c r="BM1" s="22"/>
-      <c r="BN1" s="22"/>
-      <c r="BO1" s="22"/>
-      <c r="BP1" s="22"/>
-      <c r="BQ1" s="22"/>
-      <c r="BR1" s="22"/>
-      <c r="BS1" s="22"/>
-      <c r="BT1" s="22"/>
-      <c r="BU1" s="22"/>
-      <c r="BV1" s="22"/>
-      <c r="BW1" s="22"/>
-      <c r="BX1" s="22"/>
-      <c r="BY1" s="22"/>
-      <c r="BZ1" s="22"/>
-      <c r="CA1" s="22"/>
-      <c r="CB1" s="22"/>
-      <c r="CC1" s="22"/>
-      <c r="CD1" s="22"/>
-      <c r="CE1" s="22"/>
-      <c r="CF1" s="22"/>
-      <c r="CG1" s="22"/>
-      <c r="CH1" s="22"/>
-      <c r="CI1" s="22"/>
-      <c r="CJ1" s="22"/>
-      <c r="CK1" s="22"/>
-      <c r="CL1" s="22"/>
-      <c r="CM1" s="22"/>
-      <c r="CN1" s="22"/>
-      <c r="CO1" s="22"/>
-      <c r="CP1" s="22"/>
-      <c r="CQ1" s="22"/>
-      <c r="CR1" s="22"/>
-      <c r="CS1" s="22"/>
-      <c r="CT1" s="22"/>
-      <c r="CU1" s="22"/>
-      <c r="CV1" s="22"/>
-      <c r="CW1" s="22"/>
-      <c r="CX1" s="22"/>
-      <c r="CY1" s="22"/>
-      <c r="CZ1" s="22"/>
-      <c r="DA1" s="22"/>
-      <c r="DB1" s="22"/>
-      <c r="DC1" s="22"/>
-      <c r="DD1" s="22"/>
-      <c r="DE1" s="22"/>
-      <c r="DF1" s="22"/>
-      <c r="DG1" s="22"/>
-      <c r="DH1" s="22"/>
-      <c r="DI1" s="22"/>
-      <c r="DJ1" s="22"/>
-      <c r="DK1" s="22"/>
-      <c r="DL1" s="22"/>
-      <c r="DM1" s="22"/>
-      <c r="DN1" s="22"/>
-      <c r="DO1" s="22"/>
-      <c r="DP1" s="22"/>
-      <c r="DQ1" s="22"/>
-      <c r="DR1" s="22"/>
-      <c r="DS1" s="22"/>
-      <c r="DT1" s="22"/>
-      <c r="DU1" s="22"/>
-      <c r="DV1" s="22"/>
-      <c r="DW1" s="22"/>
-      <c r="DX1" s="22"/>
-      <c r="DY1" s="22"/>
-      <c r="DZ1" s="22"/>
-      <c r="EA1" s="22"/>
-      <c r="EB1" s="22"/>
-      <c r="EC1" s="22"/>
+      <c r="BL1" s="14"/>
+      <c r="BM1" s="14"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="14"/>
+      <c r="BP1" s="14"/>
+      <c r="BQ1" s="14"/>
+      <c r="BR1" s="14"/>
+      <c r="BS1" s="14"/>
+      <c r="BT1" s="14"/>
+      <c r="BU1" s="14"/>
+      <c r="BV1" s="14"/>
+      <c r="BW1" s="14"/>
+      <c r="BX1" s="14"/>
+      <c r="BY1" s="14"/>
+      <c r="BZ1" s="14"/>
+      <c r="CA1" s="14"/>
+      <c r="CB1" s="14"/>
+      <c r="CC1" s="14"/>
+      <c r="CD1" s="14"/>
+      <c r="CE1" s="14"/>
+      <c r="CF1" s="14"/>
+      <c r="CG1" s="14"/>
+      <c r="CH1" s="14"/>
+      <c r="CI1" s="14"/>
+      <c r="CJ1" s="14"/>
+      <c r="CK1" s="14"/>
+      <c r="CL1" s="14"/>
+      <c r="CM1" s="14"/>
+      <c r="CN1" s="14"/>
+      <c r="CO1" s="14"/>
+      <c r="CP1" s="14"/>
+      <c r="CQ1" s="14"/>
+      <c r="CR1" s="14"/>
+      <c r="CS1" s="14"/>
+      <c r="CT1" s="14"/>
+      <c r="CU1" s="14"/>
+      <c r="CV1" s="14"/>
+      <c r="CW1" s="14"/>
+      <c r="CX1" s="14"/>
+      <c r="CY1" s="14"/>
+      <c r="CZ1" s="14"/>
+      <c r="DA1" s="14"/>
+      <c r="DB1" s="14"/>
+      <c r="DC1" s="14"/>
+      <c r="DD1" s="14"/>
+      <c r="DE1" s="14"/>
+      <c r="DF1" s="14"/>
+      <c r="DG1" s="14"/>
+      <c r="DH1" s="14"/>
+      <c r="DI1" s="14"/>
+      <c r="DJ1" s="14"/>
+      <c r="DK1" s="14"/>
+      <c r="DL1" s="14"/>
+      <c r="DM1" s="14"/>
+      <c r="DN1" s="14"/>
+      <c r="DO1" s="14"/>
+      <c r="DP1" s="14"/>
+      <c r="DQ1" s="14"/>
+      <c r="DR1" s="14"/>
+      <c r="DS1" s="14"/>
+      <c r="DT1" s="14"/>
+      <c r="DU1" s="14"/>
+      <c r="DV1" s="14"/>
+      <c r="DW1" s="14"/>
+      <c r="DX1" s="14"/>
+      <c r="DY1" s="14"/>
+      <c r="DZ1" s="14"/>
+      <c r="EA1" s="14"/>
+      <c r="EB1" s="14"/>
+      <c r="EC1" s="14"/>
     </row>
-    <row r="2" spans="1:133" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1890,79 +1817,79 @@
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
-      <c r="BI2" s="21"/>
+      <c r="BI2" s="13"/>
       <c r="BJ2" s="4"/>
       <c r="BK2" s="4"/>
-      <c r="BL2" s="23"/>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="22"/>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="22"/>
-      <c r="BW2" s="22"/>
-      <c r="BX2" s="23"/>
-      <c r="BY2" s="23"/>
-      <c r="BZ2" s="23"/>
-      <c r="CA2" s="23"/>
-      <c r="CB2" s="23"/>
-      <c r="CC2" s="23"/>
-      <c r="CD2" s="23"/>
-      <c r="CE2" s="24"/>
-      <c r="CF2" s="24"/>
-      <c r="CG2" s="24"/>
-      <c r="CH2" s="24"/>
-      <c r="CI2" s="23"/>
-      <c r="CJ2" s="23"/>
-      <c r="CK2" s="23"/>
-      <c r="CL2" s="23"/>
-      <c r="CM2" s="23"/>
-      <c r="CN2" s="23"/>
-      <c r="CO2" s="23"/>
-      <c r="CP2" s="24"/>
-      <c r="CQ2" s="23"/>
-      <c r="CR2" s="23"/>
-      <c r="CS2" s="23"/>
-      <c r="CT2" s="23"/>
-      <c r="CU2" s="23"/>
-      <c r="CV2" s="23"/>
-      <c r="CW2" s="23"/>
-      <c r="CX2" s="23"/>
-      <c r="CY2" s="22"/>
-      <c r="CZ2" s="22"/>
-      <c r="DA2" s="22"/>
-      <c r="DB2" s="22"/>
-      <c r="DC2" s="22"/>
-      <c r="DD2" s="22"/>
-      <c r="DE2" s="22"/>
-      <c r="DF2" s="22"/>
-      <c r="DG2" s="22"/>
-      <c r="DH2" s="22"/>
-      <c r="DI2" s="23"/>
-      <c r="DJ2" s="23"/>
-      <c r="DK2" s="23"/>
-      <c r="DL2" s="23"/>
-      <c r="DM2" s="23"/>
-      <c r="DN2" s="23"/>
-      <c r="DO2" s="23"/>
-      <c r="DP2" s="24"/>
-      <c r="DQ2" s="24"/>
-      <c r="DR2" s="24"/>
-      <c r="DS2" s="24"/>
-      <c r="DT2" s="23"/>
-      <c r="DU2" s="23"/>
-      <c r="DV2" s="23"/>
-      <c r="DW2" s="23"/>
-      <c r="DX2" s="23"/>
-      <c r="DY2" s="23"/>
-      <c r="DZ2" s="23"/>
-      <c r="EA2" s="24"/>
-      <c r="EB2" s="23"/>
-      <c r="EC2" s="22"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="14"/>
+      <c r="BQ2" s="14"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14"/>
+      <c r="BT2" s="14"/>
+      <c r="BU2" s="14"/>
+      <c r="BV2" s="14"/>
+      <c r="BW2" s="14"/>
+      <c r="BX2" s="15"/>
+      <c r="BY2" s="15"/>
+      <c r="BZ2" s="15"/>
+      <c r="CA2" s="15"/>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="15"/>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="14"/>
+      <c r="CZ2" s="14"/>
+      <c r="DA2" s="14"/>
+      <c r="DB2" s="14"/>
+      <c r="DC2" s="14"/>
+      <c r="DD2" s="14"/>
+      <c r="DE2" s="14"/>
+      <c r="DF2" s="14"/>
+      <c r="DG2" s="14"/>
+      <c r="DH2" s="14"/>
+      <c r="DI2" s="15"/>
+      <c r="DJ2" s="15"/>
+      <c r="DK2" s="15"/>
+      <c r="DL2" s="15"/>
+      <c r="DM2" s="15"/>
+      <c r="DN2" s="15"/>
+      <c r="DO2" s="15"/>
+      <c r="DP2" s="16"/>
+      <c r="DQ2" s="16"/>
+      <c r="DR2" s="16"/>
+      <c r="DS2" s="16"/>
+      <c r="DT2" s="15"/>
+      <c r="DU2" s="15"/>
+      <c r="DV2" s="15"/>
+      <c r="DW2" s="15"/>
+      <c r="DX2" s="15"/>
+      <c r="DY2" s="15"/>
+      <c r="DZ2" s="15"/>
+      <c r="EA2" s="16"/>
+      <c r="EB2" s="15"/>
+      <c r="EC2" s="14"/>
     </row>
     <row r="3" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -2027,79 +1954,79 @@
       <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
-      <c r="BI3" s="20"/>
+      <c r="BI3" s="12"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="24"/>
-      <c r="BN3" s="22"/>
-      <c r="BO3" s="22"/>
-      <c r="BP3" s="22"/>
-      <c r="BQ3" s="22"/>
-      <c r="BR3" s="22"/>
-      <c r="BS3" s="22"/>
-      <c r="BT3" s="22"/>
-      <c r="BU3" s="22"/>
-      <c r="BV3" s="22"/>
-      <c r="BW3" s="22"/>
-      <c r="BX3" s="24"/>
-      <c r="BY3" s="24"/>
-      <c r="BZ3" s="24"/>
-      <c r="CA3" s="24"/>
-      <c r="CB3" s="24"/>
-      <c r="CC3" s="24"/>
-      <c r="CD3" s="24"/>
-      <c r="CE3" s="24"/>
-      <c r="CF3" s="24"/>
-      <c r="CG3" s="24"/>
-      <c r="CH3" s="24"/>
-      <c r="CI3" s="24"/>
-      <c r="CJ3" s="24"/>
-      <c r="CK3" s="24"/>
-      <c r="CL3" s="24"/>
-      <c r="CM3" s="24"/>
-      <c r="CN3" s="24"/>
-      <c r="CO3" s="24"/>
-      <c r="CP3" s="24"/>
-      <c r="CQ3" s="24"/>
-      <c r="CR3" s="24"/>
-      <c r="CS3" s="24"/>
-      <c r="CT3" s="24"/>
-      <c r="CU3" s="24"/>
-      <c r="CV3" s="24"/>
-      <c r="CW3" s="24"/>
-      <c r="CX3" s="24"/>
-      <c r="CY3" s="22"/>
-      <c r="CZ3" s="22"/>
-      <c r="DA3" s="22"/>
-      <c r="DB3" s="22"/>
-      <c r="DC3" s="22"/>
-      <c r="DD3" s="22"/>
-      <c r="DE3" s="22"/>
-      <c r="DF3" s="22"/>
-      <c r="DG3" s="22"/>
-      <c r="DH3" s="22"/>
-      <c r="DI3" s="24"/>
-      <c r="DJ3" s="24"/>
-      <c r="DK3" s="24"/>
-      <c r="DL3" s="24"/>
-      <c r="DM3" s="24"/>
-      <c r="DN3" s="24"/>
-      <c r="DO3" s="24"/>
-      <c r="DP3" s="24"/>
-      <c r="DQ3" s="24"/>
-      <c r="DR3" s="24"/>
-      <c r="DS3" s="24"/>
-      <c r="DT3" s="24"/>
-      <c r="DU3" s="24"/>
-      <c r="DV3" s="24"/>
-      <c r="DW3" s="24"/>
-      <c r="DX3" s="24"/>
-      <c r="DY3" s="24"/>
-      <c r="DZ3" s="24"/>
-      <c r="EA3" s="24"/>
-      <c r="EB3" s="24"/>
-      <c r="EC3" s="22"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="16"/>
+      <c r="CH3" s="16"/>
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="16"/>
+      <c r="CL3" s="16"/>
+      <c r="CM3" s="16"/>
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="16"/>
+      <c r="CP3" s="16"/>
+      <c r="CQ3" s="16"/>
+      <c r="CR3" s="16"/>
+      <c r="CS3" s="16"/>
+      <c r="CT3" s="16"/>
+      <c r="CU3" s="16"/>
+      <c r="CV3" s="16"/>
+      <c r="CW3" s="16"/>
+      <c r="CX3" s="16"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="14"/>
+      <c r="DF3" s="14"/>
+      <c r="DG3" s="14"/>
+      <c r="DH3" s="14"/>
+      <c r="DI3" s="16"/>
+      <c r="DJ3" s="16"/>
+      <c r="DK3" s="16"/>
+      <c r="DL3" s="16"/>
+      <c r="DM3" s="16"/>
+      <c r="DN3" s="16"/>
+      <c r="DO3" s="16"/>
+      <c r="DP3" s="16"/>
+      <c r="DQ3" s="16"/>
+      <c r="DR3" s="16"/>
+      <c r="DS3" s="16"/>
+      <c r="DT3" s="16"/>
+      <c r="DU3" s="16"/>
+      <c r="DV3" s="16"/>
+      <c r="DW3" s="16"/>
+      <c r="DX3" s="16"/>
+      <c r="DY3" s="16"/>
+      <c r="DZ3" s="16"/>
+      <c r="EA3" s="16"/>
+      <c r="EB3" s="16"/>
+      <c r="EC3" s="14"/>
     </row>
     <row r="4" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2164,101 +2091,101 @@
       <c r="BF4" s="3"/>
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
-      <c r="BI4" s="20"/>
+      <c r="BI4" s="12"/>
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
-      <c r="BL4" s="24"/>
-      <c r="BM4" s="24"/>
-      <c r="BN4" s="22"/>
-      <c r="BO4" s="22"/>
-      <c r="BP4" s="22"/>
-      <c r="BQ4" s="22"/>
-      <c r="BR4" s="22"/>
-      <c r="BS4" s="22"/>
-      <c r="BT4" s="22"/>
-      <c r="BU4" s="22"/>
-      <c r="BV4" s="22"/>
-      <c r="BW4" s="22"/>
-      <c r="BX4" s="24"/>
-      <c r="BY4" s="24"/>
-      <c r="BZ4" s="24"/>
-      <c r="CA4" s="24"/>
-      <c r="CB4" s="24"/>
-      <c r="CC4" s="24"/>
-      <c r="CD4" s="24"/>
-      <c r="CE4" s="24"/>
-      <c r="CF4" s="24"/>
-      <c r="CG4" s="24"/>
-      <c r="CH4" s="24"/>
-      <c r="CI4" s="23"/>
-      <c r="CJ4" s="23"/>
-      <c r="CK4" s="23"/>
-      <c r="CL4" s="23"/>
-      <c r="CM4" s="23"/>
-      <c r="CN4" s="23"/>
-      <c r="CO4" s="23"/>
-      <c r="CP4" s="24"/>
-      <c r="CQ4" s="24"/>
-      <c r="CR4" s="24"/>
-      <c r="CS4" s="24"/>
-      <c r="CT4" s="24"/>
-      <c r="CU4" s="24"/>
-      <c r="CV4" s="24"/>
-      <c r="CW4" s="24"/>
-      <c r="CX4" s="24"/>
-      <c r="CY4" s="22"/>
-      <c r="CZ4" s="22"/>
-      <c r="DA4" s="22"/>
-      <c r="DB4" s="22"/>
-      <c r="DC4" s="22"/>
-      <c r="DD4" s="22"/>
-      <c r="DE4" s="22"/>
-      <c r="DF4" s="22"/>
-      <c r="DG4" s="22"/>
-      <c r="DH4" s="22"/>
-      <c r="DI4" s="24"/>
-      <c r="DJ4" s="24"/>
-      <c r="DK4" s="24"/>
-      <c r="DL4" s="24"/>
-      <c r="DM4" s="24"/>
-      <c r="DN4" s="24"/>
-      <c r="DO4" s="24"/>
-      <c r="DP4" s="24"/>
-      <c r="DQ4" s="24"/>
-      <c r="DR4" s="24"/>
-      <c r="DS4" s="24"/>
-      <c r="DT4" s="23"/>
-      <c r="DU4" s="23"/>
-      <c r="DV4" s="23"/>
-      <c r="DW4" s="23"/>
-      <c r="DX4" s="23"/>
-      <c r="DY4" s="23"/>
-      <c r="DZ4" s="23"/>
-      <c r="EA4" s="24"/>
-      <c r="EB4" s="24"/>
-      <c r="EC4" s="22"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="14"/>
+      <c r="BQ4" s="14"/>
+      <c r="BR4" s="14"/>
+      <c r="BS4" s="14"/>
+      <c r="BT4" s="14"/>
+      <c r="BU4" s="14"/>
+      <c r="BV4" s="14"/>
+      <c r="BW4" s="14"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="15"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="15"/>
+      <c r="CM4" s="15"/>
+      <c r="CN4" s="15"/>
+      <c r="CO4" s="15"/>
+      <c r="CP4" s="16"/>
+      <c r="CQ4" s="16"/>
+      <c r="CR4" s="16"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="16"/>
+      <c r="CU4" s="16"/>
+      <c r="CV4" s="16"/>
+      <c r="CW4" s="16"/>
+      <c r="CX4" s="16"/>
+      <c r="CY4" s="14"/>
+      <c r="CZ4" s="14"/>
+      <c r="DA4" s="14"/>
+      <c r="DB4" s="14"/>
+      <c r="DC4" s="14"/>
+      <c r="DD4" s="14"/>
+      <c r="DE4" s="14"/>
+      <c r="DF4" s="14"/>
+      <c r="DG4" s="14"/>
+      <c r="DH4" s="14"/>
+      <c r="DI4" s="16"/>
+      <c r="DJ4" s="16"/>
+      <c r="DK4" s="16"/>
+      <c r="DL4" s="16"/>
+      <c r="DM4" s="16"/>
+      <c r="DN4" s="16"/>
+      <c r="DO4" s="16"/>
+      <c r="DP4" s="16"/>
+      <c r="DQ4" s="16"/>
+      <c r="DR4" s="16"/>
+      <c r="DS4" s="16"/>
+      <c r="DT4" s="15"/>
+      <c r="DU4" s="15"/>
+      <c r="DV4" s="15"/>
+      <c r="DW4" s="15"/>
+      <c r="DX4" s="15"/>
+      <c r="DY4" s="15"/>
+      <c r="DZ4" s="15"/>
+      <c r="EA4" s="16"/>
+      <c r="EB4" s="16"/>
+      <c r="EC4" s="14"/>
     </row>
     <row r="5" spans="1:133" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2273,7 +2200,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -2287,7 +2214,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
@@ -2302,7 +2229,7 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
@@ -2317,89 +2244,89 @@
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="BI5" s="20" t="s">
-        <v>264</v>
+        <v>235</v>
+      </c>
+      <c r="BI5" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
-      <c r="BL5" s="24"/>
-      <c r="BM5" s="22"/>
-      <c r="BN5" s="22"/>
-      <c r="BO5" s="22"/>
-      <c r="BP5" s="22"/>
-      <c r="BQ5" s="22"/>
-      <c r="BR5" s="22"/>
-      <c r="BS5" s="22"/>
-      <c r="BT5" s="22"/>
-      <c r="BU5" s="22"/>
-      <c r="BV5" s="22"/>
-      <c r="BW5" s="22"/>
-      <c r="BX5" s="22"/>
-      <c r="BY5" s="22"/>
-      <c r="BZ5" s="24"/>
-      <c r="CA5" s="24"/>
-      <c r="CB5" s="24"/>
-      <c r="CC5" s="24"/>
-      <c r="CD5" s="24"/>
-      <c r="CE5" s="24"/>
-      <c r="CF5" s="24"/>
-      <c r="CG5" s="24"/>
-      <c r="CH5" s="24"/>
-      <c r="CI5" s="24"/>
-      <c r="CJ5" s="24"/>
-      <c r="CK5" s="24"/>
-      <c r="CL5" s="24"/>
-      <c r="CM5" s="24"/>
-      <c r="CN5" s="24"/>
-      <c r="CO5" s="22"/>
-      <c r="CP5" s="22"/>
-      <c r="CQ5" s="22"/>
-      <c r="CR5" s="22"/>
-      <c r="CS5" s="22"/>
-      <c r="CT5" s="22"/>
-      <c r="CU5" s="22"/>
-      <c r="CV5" s="22"/>
-      <c r="CW5" s="22"/>
-      <c r="CX5" s="22"/>
-      <c r="CY5" s="22"/>
-      <c r="CZ5" s="22"/>
-      <c r="DA5" s="22"/>
-      <c r="DB5" s="22"/>
-      <c r="DC5" s="22"/>
-      <c r="DD5" s="22"/>
-      <c r="DE5" s="22"/>
-      <c r="DF5" s="22"/>
-      <c r="DG5" s="22"/>
-      <c r="DH5" s="22"/>
-      <c r="DI5" s="24"/>
-      <c r="DJ5" s="24"/>
-      <c r="DK5" s="24"/>
-      <c r="DL5" s="24"/>
-      <c r="DM5" s="24"/>
-      <c r="DN5" s="22"/>
-      <c r="DO5" s="22"/>
-      <c r="DP5" s="22"/>
-      <c r="DQ5" s="22"/>
-      <c r="DR5" s="22"/>
-      <c r="DS5" s="22"/>
-      <c r="DT5" s="22"/>
-      <c r="DU5" s="24"/>
-      <c r="DV5" s="24"/>
-      <c r="DW5" s="24"/>
-      <c r="DX5" s="24"/>
-      <c r="DY5" s="24"/>
-      <c r="DZ5" s="24"/>
-      <c r="EA5" s="24"/>
-      <c r="EB5" s="24"/>
-      <c r="EC5" s="22"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="14"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="14"/>
+      <c r="BP5" s="14"/>
+      <c r="BQ5" s="14"/>
+      <c r="BR5" s="14"/>
+      <c r="BS5" s="14"/>
+      <c r="BT5" s="14"/>
+      <c r="BU5" s="14"/>
+      <c r="BV5" s="14"/>
+      <c r="BW5" s="14"/>
+      <c r="BX5" s="14"/>
+      <c r="BY5" s="14"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="14"/>
+      <c r="CP5" s="14"/>
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="14"/>
+      <c r="CS5" s="14"/>
+      <c r="CT5" s="14"/>
+      <c r="CU5" s="14"/>
+      <c r="CV5" s="14"/>
+      <c r="CW5" s="14"/>
+      <c r="CX5" s="14"/>
+      <c r="CY5" s="14"/>
+      <c r="CZ5" s="14"/>
+      <c r="DA5" s="14"/>
+      <c r="DB5" s="14"/>
+      <c r="DC5" s="14"/>
+      <c r="DD5" s="14"/>
+      <c r="DE5" s="14"/>
+      <c r="DF5" s="14"/>
+      <c r="DG5" s="14"/>
+      <c r="DH5" s="14"/>
+      <c r="DI5" s="16"/>
+      <c r="DJ5" s="16"/>
+      <c r="DK5" s="16"/>
+      <c r="DL5" s="16"/>
+      <c r="DM5" s="16"/>
+      <c r="DN5" s="14"/>
+      <c r="DO5" s="14"/>
+      <c r="DP5" s="14"/>
+      <c r="DQ5" s="14"/>
+      <c r="DR5" s="14"/>
+      <c r="DS5" s="14"/>
+      <c r="DT5" s="14"/>
+      <c r="DU5" s="16"/>
+      <c r="DV5" s="16"/>
+      <c r="DW5" s="16"/>
+      <c r="DX5" s="16"/>
+      <c r="DY5" s="16"/>
+      <c r="DZ5" s="16"/>
+      <c r="EA5" s="16"/>
+      <c r="EB5" s="16"/>
+      <c r="EC5" s="14"/>
     </row>
     <row r="6" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2488,83 +2415,83 @@
       <c r="BH6" s="3">
         <v>271</v>
       </c>
-      <c r="BI6" s="20">
+      <c r="BI6" s="12">
         <v>273</v>
       </c>
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="22"/>
-      <c r="BN6" s="22"/>
-      <c r="BO6" s="22"/>
-      <c r="BP6" s="22"/>
-      <c r="BQ6" s="22"/>
-      <c r="BR6" s="22"/>
-      <c r="BS6" s="22"/>
-      <c r="BT6" s="22"/>
-      <c r="BU6" s="22"/>
-      <c r="BV6" s="22"/>
-      <c r="BW6" s="22"/>
-      <c r="BX6" s="22"/>
-      <c r="BY6" s="22"/>
-      <c r="BZ6" s="24"/>
-      <c r="CA6" s="24"/>
-      <c r="CB6" s="24"/>
-      <c r="CC6" s="24"/>
-      <c r="CD6" s="24"/>
-      <c r="CE6" s="24"/>
-      <c r="CF6" s="24"/>
-      <c r="CG6" s="24"/>
-      <c r="CH6" s="24"/>
-      <c r="CI6" s="24"/>
-      <c r="CJ6" s="24"/>
-      <c r="CK6" s="24"/>
-      <c r="CL6" s="24"/>
-      <c r="CM6" s="24"/>
-      <c r="CN6" s="24"/>
-      <c r="CO6" s="22"/>
-      <c r="CP6" s="22"/>
-      <c r="CQ6" s="22"/>
-      <c r="CR6" s="22"/>
-      <c r="CS6" s="22"/>
-      <c r="CT6" s="22"/>
-      <c r="CU6" s="22"/>
-      <c r="CV6" s="22"/>
-      <c r="CW6" s="22"/>
-      <c r="CX6" s="22"/>
-      <c r="CY6" s="22"/>
-      <c r="CZ6" s="22"/>
-      <c r="DA6" s="22"/>
-      <c r="DB6" s="22"/>
-      <c r="DC6" s="22"/>
-      <c r="DD6" s="22"/>
-      <c r="DE6" s="22"/>
-      <c r="DF6" s="22"/>
-      <c r="DG6" s="22"/>
-      <c r="DH6" s="22"/>
-      <c r="DI6" s="24"/>
-      <c r="DJ6" s="24"/>
-      <c r="DK6" s="24"/>
-      <c r="DL6" s="24"/>
-      <c r="DM6" s="24"/>
-      <c r="DN6" s="22"/>
-      <c r="DO6" s="22"/>
-      <c r="DP6" s="22"/>
-      <c r="DQ6" s="22"/>
-      <c r="DR6" s="22"/>
-      <c r="DS6" s="22"/>
-      <c r="DT6" s="22"/>
-      <c r="DU6" s="24"/>
-      <c r="DV6" s="24"/>
-      <c r="DW6" s="24"/>
-      <c r="DX6" s="24"/>
-      <c r="DY6" s="24"/>
-      <c r="DZ6" s="24"/>
-      <c r="EA6" s="24"/>
-      <c r="EB6" s="24"/>
-      <c r="EC6" s="22"/>
+      <c r="BL6" s="16"/>
+      <c r="BM6" s="14"/>
+      <c r="BN6" s="14"/>
+      <c r="BO6" s="14"/>
+      <c r="BP6" s="14"/>
+      <c r="BQ6" s="14"/>
+      <c r="BR6" s="14"/>
+      <c r="BS6" s="14"/>
+      <c r="BT6" s="14"/>
+      <c r="BU6" s="14"/>
+      <c r="BV6" s="14"/>
+      <c r="BW6" s="14"/>
+      <c r="BX6" s="14"/>
+      <c r="BY6" s="14"/>
+      <c r="BZ6" s="16"/>
+      <c r="CA6" s="16"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="16"/>
+      <c r="CE6" s="16"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="16"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16"/>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+      <c r="CO6" s="14"/>
+      <c r="CP6" s="14"/>
+      <c r="CQ6" s="14"/>
+      <c r="CR6" s="14"/>
+      <c r="CS6" s="14"/>
+      <c r="CT6" s="14"/>
+      <c r="CU6" s="14"/>
+      <c r="CV6" s="14"/>
+      <c r="CW6" s="14"/>
+      <c r="CX6" s="14"/>
+      <c r="CY6" s="14"/>
+      <c r="CZ6" s="14"/>
+      <c r="DA6" s="14"/>
+      <c r="DB6" s="14"/>
+      <c r="DC6" s="14"/>
+      <c r="DD6" s="14"/>
+      <c r="DE6" s="14"/>
+      <c r="DF6" s="14"/>
+      <c r="DG6" s="14"/>
+      <c r="DH6" s="14"/>
+      <c r="DI6" s="16"/>
+      <c r="DJ6" s="16"/>
+      <c r="DK6" s="16"/>
+      <c r="DL6" s="16"/>
+      <c r="DM6" s="16"/>
+      <c r="DN6" s="14"/>
+      <c r="DO6" s="14"/>
+      <c r="DP6" s="14"/>
+      <c r="DQ6" s="14"/>
+      <c r="DR6" s="14"/>
+      <c r="DS6" s="14"/>
+      <c r="DT6" s="14"/>
+      <c r="DU6" s="16"/>
+      <c r="DV6" s="16"/>
+      <c r="DW6" s="16"/>
+      <c r="DX6" s="16"/>
+      <c r="DY6" s="16"/>
+      <c r="DZ6" s="16"/>
+      <c r="EA6" s="16"/>
+      <c r="EB6" s="16"/>
+      <c r="EC6" s="14"/>
     </row>
-    <row r="7" spans="1:133" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:133" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,177 +2502,177 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
       <c r="AV7" s="3" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="AW7" s="3"/>
       <c r="AX7" s="3" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="AY7" s="3"/>
       <c r="AZ7" s="3" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
       <c r="BG7" s="3"/>
       <c r="BH7" s="3"/>
-      <c r="BI7" s="20"/>
+      <c r="BI7" s="12"/>
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="BL7" s="22"/>
-      <c r="BM7" s="22"/>
-      <c r="BN7" s="22"/>
-      <c r="BO7" s="22"/>
-      <c r="BP7" s="22"/>
-      <c r="BQ7" s="22"/>
-      <c r="BR7" s="22"/>
-      <c r="BS7" s="22"/>
-      <c r="BT7" s="22"/>
-      <c r="BU7" s="22"/>
-      <c r="BV7" s="22"/>
-      <c r="BW7" s="22"/>
-      <c r="BX7" s="22"/>
-      <c r="BY7" s="22"/>
-      <c r="BZ7" s="24"/>
-      <c r="CA7" s="24"/>
-      <c r="CB7" s="25"/>
-      <c r="CC7" s="24"/>
-      <c r="CD7" s="24"/>
-      <c r="CE7" s="24"/>
-      <c r="CF7" s="24"/>
-      <c r="CG7" s="25"/>
-      <c r="CH7" s="24"/>
-      <c r="CI7" s="24"/>
-      <c r="CJ7" s="24"/>
-      <c r="CK7" s="24"/>
-      <c r="CL7" s="24"/>
-      <c r="CM7" s="24"/>
-      <c r="CN7" s="24"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="22"/>
-      <c r="CQ7" s="22"/>
-      <c r="CR7" s="22"/>
-      <c r="CS7" s="22"/>
-      <c r="CT7" s="22"/>
-      <c r="CU7" s="22"/>
-      <c r="CV7" s="22"/>
-      <c r="CW7" s="22"/>
-      <c r="CX7" s="22"/>
-      <c r="CY7" s="22"/>
-      <c r="CZ7" s="22"/>
-      <c r="DA7" s="22"/>
-      <c r="DB7" s="22"/>
-      <c r="DC7" s="22"/>
-      <c r="DD7" s="22"/>
-      <c r="DE7" s="22"/>
-      <c r="DF7" s="22"/>
-      <c r="DG7" s="22"/>
-      <c r="DH7" s="22"/>
-      <c r="DI7" s="22"/>
-      <c r="DJ7" s="24"/>
-      <c r="DK7" s="24"/>
-      <c r="DL7" s="24"/>
-      <c r="DM7" s="24"/>
-      <c r="DN7" s="22"/>
-      <c r="DO7" s="22"/>
-      <c r="DP7" s="22"/>
-      <c r="DQ7" s="22"/>
-      <c r="DR7" s="22"/>
-      <c r="DS7" s="22"/>
-      <c r="DT7" s="22"/>
-      <c r="DU7" s="24"/>
-      <c r="DV7" s="24"/>
-      <c r="DW7" s="24"/>
-      <c r="DX7" s="24"/>
-      <c r="DY7" s="24"/>
-      <c r="DZ7" s="24"/>
-      <c r="EA7" s="24"/>
-      <c r="EB7" s="24"/>
-      <c r="EC7" s="22"/>
+        <v>237</v>
+      </c>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="14"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
+      <c r="BR7" s="14"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="14"/>
+      <c r="BU7" s="14"/>
+      <c r="BV7" s="14"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="16"/>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="17"/>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16"/>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="17"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="14"/>
+      <c r="CP7" s="14"/>
+      <c r="CQ7" s="14"/>
+      <c r="CR7" s="14"/>
+      <c r="CS7" s="14"/>
+      <c r="CT7" s="14"/>
+      <c r="CU7" s="14"/>
+      <c r="CV7" s="14"/>
+      <c r="CW7" s="14"/>
+      <c r="CX7" s="14"/>
+      <c r="CY7" s="14"/>
+      <c r="CZ7" s="14"/>
+      <c r="DA7" s="14"/>
+      <c r="DB7" s="14"/>
+      <c r="DC7" s="14"/>
+      <c r="DD7" s="14"/>
+      <c r="DE7" s="14"/>
+      <c r="DF7" s="14"/>
+      <c r="DG7" s="14"/>
+      <c r="DH7" s="14"/>
+      <c r="DI7" s="14"/>
+      <c r="DJ7" s="16"/>
+      <c r="DK7" s="16"/>
+      <c r="DL7" s="16"/>
+      <c r="DM7" s="16"/>
+      <c r="DN7" s="14"/>
+      <c r="DO7" s="14"/>
+      <c r="DP7" s="14"/>
+      <c r="DQ7" s="14"/>
+      <c r="DR7" s="14"/>
+      <c r="DS7" s="14"/>
+      <c r="DT7" s="14"/>
+      <c r="DU7" s="16"/>
+      <c r="DV7" s="16"/>
+      <c r="DW7" s="16"/>
+      <c r="DX7" s="16"/>
+      <c r="DY7" s="16"/>
+      <c r="DZ7" s="16"/>
+      <c r="EA7" s="16"/>
+      <c r="EB7" s="16"/>
+      <c r="EC7" s="14"/>
     </row>
     <row r="8" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -2854,340 +2781,340 @@
       <c r="BF8" s="4"/>
       <c r="BG8" s="4"/>
       <c r="BH8" s="3"/>
-      <c r="BI8" s="20"/>
+      <c r="BI8" s="12"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3">
         <v>279</v>
       </c>
-      <c r="BL8" s="24"/>
-      <c r="BM8" s="22"/>
-      <c r="BN8" s="22"/>
-      <c r="BO8" s="22"/>
-      <c r="BP8" s="22"/>
-      <c r="BQ8" s="22"/>
-      <c r="BR8" s="22"/>
-      <c r="BS8" s="22"/>
-      <c r="BT8" s="22"/>
-      <c r="BU8" s="22"/>
-      <c r="BV8" s="22"/>
-      <c r="BW8" s="22"/>
-      <c r="BX8" s="22"/>
-      <c r="BY8" s="22"/>
-      <c r="BZ8" s="23"/>
-      <c r="CA8" s="23"/>
-      <c r="CB8" s="23"/>
-      <c r="CC8" s="23"/>
-      <c r="CD8" s="23"/>
-      <c r="CE8" s="24"/>
-      <c r="CF8" s="24"/>
-      <c r="CG8" s="24"/>
-      <c r="CH8" s="24"/>
-      <c r="CI8" s="24"/>
-      <c r="CJ8" s="24"/>
-      <c r="CK8" s="24"/>
-      <c r="CL8" s="24"/>
-      <c r="CM8" s="24"/>
-      <c r="CN8" s="24"/>
-      <c r="CO8" s="22"/>
-      <c r="CP8" s="22"/>
-      <c r="CQ8" s="22"/>
-      <c r="CR8" s="22"/>
-      <c r="CS8" s="22"/>
-      <c r="CT8" s="22"/>
-      <c r="CU8" s="22"/>
-      <c r="CV8" s="22"/>
-      <c r="CW8" s="22"/>
-      <c r="CX8" s="22"/>
-      <c r="CY8" s="22"/>
-      <c r="CZ8" s="22"/>
-      <c r="DA8" s="22"/>
-      <c r="DB8" s="22"/>
-      <c r="DC8" s="22"/>
-      <c r="DD8" s="22"/>
-      <c r="DE8" s="22"/>
-      <c r="DF8" s="22"/>
-      <c r="DG8" s="22"/>
-      <c r="DH8" s="22"/>
-      <c r="DI8" s="23"/>
-      <c r="DJ8" s="23"/>
-      <c r="DK8" s="23"/>
-      <c r="DL8" s="23"/>
-      <c r="DM8" s="23"/>
-      <c r="DN8" s="22"/>
-      <c r="DO8" s="22"/>
-      <c r="DP8" s="22"/>
-      <c r="DQ8" s="22"/>
-      <c r="DR8" s="22"/>
-      <c r="DS8" s="22"/>
-      <c r="DT8" s="22"/>
-      <c r="DU8" s="24"/>
-      <c r="DV8" s="24"/>
-      <c r="DW8" s="24"/>
-      <c r="DX8" s="24"/>
-      <c r="DY8" s="24"/>
-      <c r="DZ8" s="24"/>
-      <c r="EA8" s="24"/>
-      <c r="EB8" s="23"/>
-      <c r="EC8" s="22"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="14"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="15"/>
+      <c r="CA8" s="15"/>
+      <c r="CB8" s="15"/>
+      <c r="CC8" s="15"/>
+      <c r="CD8" s="15"/>
+      <c r="CE8" s="16"/>
+      <c r="CF8" s="16"/>
+      <c r="CG8" s="16"/>
+      <c r="CH8" s="16"/>
+      <c r="CI8" s="16"/>
+      <c r="CJ8" s="16"/>
+      <c r="CK8" s="16"/>
+      <c r="CL8" s="16"/>
+      <c r="CM8" s="16"/>
+      <c r="CN8" s="16"/>
+      <c r="CO8" s="14"/>
+      <c r="CP8" s="14"/>
+      <c r="CQ8" s="14"/>
+      <c r="CR8" s="14"/>
+      <c r="CS8" s="14"/>
+      <c r="CT8" s="14"/>
+      <c r="CU8" s="14"/>
+      <c r="CV8" s="14"/>
+      <c r="CW8" s="14"/>
+      <c r="CX8" s="14"/>
+      <c r="CY8" s="14"/>
+      <c r="CZ8" s="14"/>
+      <c r="DA8" s="14"/>
+      <c r="DB8" s="14"/>
+      <c r="DC8" s="14"/>
+      <c r="DD8" s="14"/>
+      <c r="DE8" s="14"/>
+      <c r="DF8" s="14"/>
+      <c r="DG8" s="14"/>
+      <c r="DH8" s="14"/>
+      <c r="DI8" s="15"/>
+      <c r="DJ8" s="15"/>
+      <c r="DK8" s="15"/>
+      <c r="DL8" s="15"/>
+      <c r="DM8" s="15"/>
+      <c r="DN8" s="14"/>
+      <c r="DO8" s="14"/>
+      <c r="DP8" s="14"/>
+      <c r="DQ8" s="14"/>
+      <c r="DR8" s="14"/>
+      <c r="DS8" s="14"/>
+      <c r="DT8" s="14"/>
+      <c r="DU8" s="16"/>
+      <c r="DV8" s="16"/>
+      <c r="DW8" s="16"/>
+      <c r="DX8" s="16"/>
+      <c r="DY8" s="16"/>
+      <c r="DZ8" s="16"/>
+      <c r="EA8" s="16"/>
+      <c r="EB8" s="15"/>
+      <c r="EC8" s="14"/>
     </row>
-    <row r="9" spans="1:133" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:133" ht="132" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="J9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="O9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="S9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="W9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AH9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AT9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AL9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT9" s="3" t="s">
+      <c r="AY9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB9" s="3" t="s">
+      <c r="BG9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI9" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="BC9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD9" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="BE9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH9" s="3" t="s">
+      <c r="BJ9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BI9" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ9" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="BK9" s="3"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22"/>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22"/>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22"/>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="24"/>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24"/>
-      <c r="CE9" s="24"/>
-      <c r="CF9" s="24"/>
-      <c r="CG9" s="24"/>
-      <c r="CH9" s="24"/>
-      <c r="CI9" s="24"/>
-      <c r="CJ9" s="24"/>
-      <c r="CK9" s="24"/>
-      <c r="CL9" s="24"/>
-      <c r="CM9" s="24"/>
-      <c r="CN9" s="24"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="22"/>
-      <c r="CQ9" s="22"/>
-      <c r="CR9" s="22"/>
-      <c r="CS9" s="22"/>
-      <c r="CT9" s="22"/>
-      <c r="CU9" s="22"/>
-      <c r="CV9" s="22"/>
-      <c r="CW9" s="22"/>
-      <c r="CX9" s="22"/>
-      <c r="CY9" s="22"/>
-      <c r="CZ9" s="22"/>
-      <c r="DA9" s="22"/>
-      <c r="DB9" s="22"/>
-      <c r="DC9" s="22"/>
-      <c r="DD9" s="22"/>
-      <c r="DE9" s="22"/>
-      <c r="DF9" s="22"/>
-      <c r="DG9" s="24"/>
-      <c r="DH9" s="24"/>
-      <c r="DI9" s="24"/>
-      <c r="DJ9" s="24"/>
-      <c r="DK9" s="24"/>
-      <c r="DL9" s="24"/>
-      <c r="DM9" s="24"/>
-      <c r="DN9" s="22"/>
-      <c r="DO9" s="22"/>
-      <c r="DP9" s="22"/>
-      <c r="DQ9" s="22"/>
-      <c r="DR9" s="22"/>
-      <c r="DS9" s="22"/>
-      <c r="DT9" s="22"/>
-      <c r="DU9" s="24"/>
-      <c r="DV9" s="24"/>
-      <c r="DW9" s="24"/>
-      <c r="DX9" s="24"/>
-      <c r="DY9" s="24"/>
-      <c r="DZ9" s="24"/>
-      <c r="EA9" s="24"/>
-      <c r="EB9" s="24"/>
-      <c r="EC9" s="22"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
+      <c r="BQ9" s="14"/>
+      <c r="BR9" s="14"/>
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="14"/>
+      <c r="BU9" s="14"/>
+      <c r="BV9" s="14"/>
+      <c r="BW9" s="14"/>
+      <c r="BX9" s="14"/>
+      <c r="BY9" s="14"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="14"/>
+      <c r="CP9" s="14"/>
+      <c r="CQ9" s="14"/>
+      <c r="CR9" s="14"/>
+      <c r="CS9" s="14"/>
+      <c r="CT9" s="14"/>
+      <c r="CU9" s="14"/>
+      <c r="CV9" s="14"/>
+      <c r="CW9" s="14"/>
+      <c r="CX9" s="14"/>
+      <c r="CY9" s="14"/>
+      <c r="CZ9" s="14"/>
+      <c r="DA9" s="14"/>
+      <c r="DB9" s="14"/>
+      <c r="DC9" s="14"/>
+      <c r="DD9" s="14"/>
+      <c r="DE9" s="14"/>
+      <c r="DF9" s="14"/>
+      <c r="DG9" s="16"/>
+      <c r="DH9" s="16"/>
+      <c r="DI9" s="16"/>
+      <c r="DJ9" s="16"/>
+      <c r="DK9" s="16"/>
+      <c r="DL9" s="16"/>
+      <c r="DM9" s="16"/>
+      <c r="DN9" s="14"/>
+      <c r="DO9" s="14"/>
+      <c r="DP9" s="14"/>
+      <c r="DQ9" s="14"/>
+      <c r="DR9" s="14"/>
+      <c r="DS9" s="14"/>
+      <c r="DT9" s="14"/>
+      <c r="DU9" s="16"/>
+      <c r="DV9" s="16"/>
+      <c r="DW9" s="16"/>
+      <c r="DX9" s="16"/>
+      <c r="DY9" s="16"/>
+      <c r="DZ9" s="16"/>
+      <c r="EA9" s="16"/>
+      <c r="EB9" s="16"/>
+      <c r="EC9" s="14"/>
     </row>
     <row r="10" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -3370,342 +3297,342 @@
       <c r="BH10" s="3">
         <v>271</v>
       </c>
-      <c r="BI10" s="20">
+      <c r="BI10" s="12">
         <v>273</v>
       </c>
       <c r="BJ10" s="3">
         <v>276</v>
       </c>
       <c r="BK10" s="3"/>
-      <c r="BL10" s="24"/>
-      <c r="BM10" s="22"/>
-      <c r="BN10" s="22"/>
-      <c r="BO10" s="22"/>
-      <c r="BP10" s="22"/>
-      <c r="BQ10" s="22"/>
-      <c r="BR10" s="22"/>
-      <c r="BS10" s="22"/>
-      <c r="BT10" s="22"/>
-      <c r="BU10" s="22"/>
-      <c r="BV10" s="22"/>
-      <c r="BW10" s="22"/>
-      <c r="BX10" s="22"/>
-      <c r="BY10" s="22"/>
-      <c r="BZ10" s="23"/>
-      <c r="CA10" s="23"/>
-      <c r="CB10" s="23"/>
-      <c r="CC10" s="23"/>
-      <c r="CD10" s="23"/>
-      <c r="CE10" s="24"/>
-      <c r="CF10" s="24"/>
-      <c r="CG10" s="24"/>
-      <c r="CH10" s="24"/>
-      <c r="CI10" s="24"/>
-      <c r="CJ10" s="24"/>
-      <c r="CK10" s="23"/>
-      <c r="CL10" s="23"/>
-      <c r="CM10" s="23"/>
-      <c r="CN10" s="23"/>
-      <c r="CO10" s="22"/>
-      <c r="CP10" s="22"/>
-      <c r="CQ10" s="22"/>
-      <c r="CR10" s="22"/>
-      <c r="CS10" s="22"/>
-      <c r="CT10" s="22"/>
-      <c r="CU10" s="22"/>
-      <c r="CV10" s="22"/>
-      <c r="CW10" s="22"/>
-      <c r="CX10" s="22"/>
-      <c r="CY10" s="22"/>
-      <c r="CZ10" s="22"/>
-      <c r="DA10" s="22"/>
-      <c r="DB10" s="22"/>
-      <c r="DC10" s="22"/>
-      <c r="DD10" s="22"/>
-      <c r="DE10" s="22"/>
-      <c r="DF10" s="22"/>
-      <c r="DG10" s="22"/>
-      <c r="DH10" s="22"/>
-      <c r="DI10" s="23"/>
-      <c r="DJ10" s="23"/>
-      <c r="DK10" s="23"/>
-      <c r="DL10" s="23"/>
-      <c r="DM10" s="23"/>
-      <c r="DN10" s="22"/>
-      <c r="DO10" s="22"/>
-      <c r="DP10" s="22"/>
-      <c r="DQ10" s="22"/>
-      <c r="DR10" s="22"/>
-      <c r="DS10" s="22"/>
-      <c r="DT10" s="22"/>
-      <c r="DU10" s="24"/>
-      <c r="DV10" s="23"/>
-      <c r="DW10" s="23"/>
-      <c r="DX10" s="23"/>
-      <c r="DY10" s="23"/>
-      <c r="DZ10" s="23"/>
-      <c r="EA10" s="24"/>
-      <c r="EB10" s="23"/>
-      <c r="EC10" s="22"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
+      <c r="BU10" s="14"/>
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="14"/>
+      <c r="BX10" s="14"/>
+      <c r="BY10" s="14"/>
+      <c r="BZ10" s="15"/>
+      <c r="CA10" s="15"/>
+      <c r="CB10" s="15"/>
+      <c r="CC10" s="15"/>
+      <c r="CD10" s="15"/>
+      <c r="CE10" s="16"/>
+      <c r="CF10" s="16"/>
+      <c r="CG10" s="16"/>
+      <c r="CH10" s="16"/>
+      <c r="CI10" s="16"/>
+      <c r="CJ10" s="16"/>
+      <c r="CK10" s="15"/>
+      <c r="CL10" s="15"/>
+      <c r="CM10" s="15"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="14"/>
+      <c r="CP10" s="14"/>
+      <c r="CQ10" s="14"/>
+      <c r="CR10" s="14"/>
+      <c r="CS10" s="14"/>
+      <c r="CT10" s="14"/>
+      <c r="CU10" s="14"/>
+      <c r="CV10" s="14"/>
+      <c r="CW10" s="14"/>
+      <c r="CX10" s="14"/>
+      <c r="CY10" s="14"/>
+      <c r="CZ10" s="14"/>
+      <c r="DA10" s="14"/>
+      <c r="DB10" s="14"/>
+      <c r="DC10" s="14"/>
+      <c r="DD10" s="14"/>
+      <c r="DE10" s="14"/>
+      <c r="DF10" s="14"/>
+      <c r="DG10" s="14"/>
+      <c r="DH10" s="14"/>
+      <c r="DI10" s="15"/>
+      <c r="DJ10" s="15"/>
+      <c r="DK10" s="15"/>
+      <c r="DL10" s="15"/>
+      <c r="DM10" s="15"/>
+      <c r="DN10" s="14"/>
+      <c r="DO10" s="14"/>
+      <c r="DP10" s="14"/>
+      <c r="DQ10" s="14"/>
+      <c r="DR10" s="14"/>
+      <c r="DS10" s="14"/>
+      <c r="DT10" s="14"/>
+      <c r="DU10" s="16"/>
+      <c r="DV10" s="15"/>
+      <c r="DW10" s="15"/>
+      <c r="DX10" s="15"/>
+      <c r="DY10" s="15"/>
+      <c r="DZ10" s="15"/>
+      <c r="EA10" s="16"/>
+      <c r="EB10" s="15"/>
+      <c r="EC10" s="14"/>
     </row>
-    <row r="11" spans="1:133" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:133" ht="132" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="AA11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AC11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AE11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AH11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM11" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
+      <c r="AT11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AR11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT11" s="3" t="s">
+      <c r="AW11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AU11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX11" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AY11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB11" s="3" t="s">
+      <c r="BG11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI11" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="BC11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH11" s="3" t="s">
+      <c r="BJ11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BI11" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ11" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="BK11" s="3"/>
-      <c r="BL11" s="24"/>
-      <c r="BM11" s="22"/>
-      <c r="BN11" s="22"/>
-      <c r="BO11" s="22"/>
-      <c r="BP11" s="22"/>
-      <c r="BQ11" s="22"/>
-      <c r="BR11" s="22"/>
-      <c r="BS11" s="22"/>
-      <c r="BT11" s="22"/>
-      <c r="BU11" s="22"/>
-      <c r="BV11" s="22"/>
-      <c r="BW11" s="22"/>
-      <c r="BX11" s="22"/>
-      <c r="BY11" s="22"/>
-      <c r="BZ11" s="24"/>
-      <c r="CA11" s="24"/>
-      <c r="CB11" s="24"/>
-      <c r="CC11" s="24"/>
-      <c r="CD11" s="24"/>
-      <c r="CE11" s="24"/>
-      <c r="CF11" s="24"/>
-      <c r="CG11" s="24"/>
-      <c r="CH11" s="24"/>
-      <c r="CI11" s="24"/>
-      <c r="CJ11" s="24"/>
-      <c r="CK11" s="24"/>
-      <c r="CL11" s="24"/>
-      <c r="CM11" s="24"/>
-      <c r="CN11" s="24"/>
-      <c r="CO11" s="22"/>
-      <c r="CP11" s="22"/>
-      <c r="CQ11" s="22"/>
-      <c r="CR11" s="22"/>
-      <c r="CS11" s="22"/>
-      <c r="CT11" s="22"/>
-      <c r="CU11" s="22"/>
-      <c r="CV11" s="22"/>
-      <c r="CW11" s="22"/>
-      <c r="CX11" s="22"/>
-      <c r="CY11" s="22"/>
-      <c r="CZ11" s="22"/>
-      <c r="DA11" s="22"/>
-      <c r="DB11" s="22"/>
-      <c r="DC11" s="22"/>
-      <c r="DD11" s="22"/>
-      <c r="DE11" s="22"/>
-      <c r="DF11" s="22"/>
-      <c r="DG11" s="24"/>
-      <c r="DH11" s="24"/>
-      <c r="DI11" s="24"/>
-      <c r="DJ11" s="24"/>
-      <c r="DK11" s="24"/>
-      <c r="DL11" s="24"/>
-      <c r="DM11" s="24"/>
-      <c r="DN11" s="22"/>
-      <c r="DO11" s="22"/>
-      <c r="DP11" s="22"/>
-      <c r="DQ11" s="22"/>
-      <c r="DR11" s="22"/>
-      <c r="DS11" s="22"/>
-      <c r="DT11" s="22"/>
-      <c r="DU11" s="24"/>
-      <c r="DV11" s="24"/>
-      <c r="DW11" s="24"/>
-      <c r="DX11" s="24"/>
-      <c r="DY11" s="24"/>
-      <c r="DZ11" s="24"/>
-      <c r="EA11" s="24"/>
-      <c r="EB11" s="24"/>
-      <c r="EC11" s="22"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="14"/>
+      <c r="BN11" s="14"/>
+      <c r="BO11" s="14"/>
+      <c r="BP11" s="14"/>
+      <c r="BQ11" s="14"/>
+      <c r="BR11" s="14"/>
+      <c r="BS11" s="14"/>
+      <c r="BT11" s="14"/>
+      <c r="BU11" s="14"/>
+      <c r="BV11" s="14"/>
+      <c r="BW11" s="14"/>
+      <c r="BX11" s="14"/>
+      <c r="BY11" s="14"/>
+      <c r="BZ11" s="16"/>
+      <c r="CA11" s="16"/>
+      <c r="CB11" s="16"/>
+      <c r="CC11" s="16"/>
+      <c r="CD11" s="16"/>
+      <c r="CE11" s="16"/>
+      <c r="CF11" s="16"/>
+      <c r="CG11" s="16"/>
+      <c r="CH11" s="16"/>
+      <c r="CI11" s="16"/>
+      <c r="CJ11" s="16"/>
+      <c r="CK11" s="16"/>
+      <c r="CL11" s="16"/>
+      <c r="CM11" s="16"/>
+      <c r="CN11" s="16"/>
+      <c r="CO11" s="14"/>
+      <c r="CP11" s="14"/>
+      <c r="CQ11" s="14"/>
+      <c r="CR11" s="14"/>
+      <c r="CS11" s="14"/>
+      <c r="CT11" s="14"/>
+      <c r="CU11" s="14"/>
+      <c r="CV11" s="14"/>
+      <c r="CW11" s="14"/>
+      <c r="CX11" s="14"/>
+      <c r="CY11" s="14"/>
+      <c r="CZ11" s="14"/>
+      <c r="DA11" s="14"/>
+      <c r="DB11" s="14"/>
+      <c r="DC11" s="14"/>
+      <c r="DD11" s="14"/>
+      <c r="DE11" s="14"/>
+      <c r="DF11" s="14"/>
+      <c r="DG11" s="16"/>
+      <c r="DH11" s="16"/>
+      <c r="DI11" s="16"/>
+      <c r="DJ11" s="16"/>
+      <c r="DK11" s="16"/>
+      <c r="DL11" s="16"/>
+      <c r="DM11" s="16"/>
+      <c r="DN11" s="14"/>
+      <c r="DO11" s="14"/>
+      <c r="DP11" s="14"/>
+      <c r="DQ11" s="14"/>
+      <c r="DR11" s="14"/>
+      <c r="DS11" s="14"/>
+      <c r="DT11" s="14"/>
+      <c r="DU11" s="16"/>
+      <c r="DV11" s="16"/>
+      <c r="DW11" s="16"/>
+      <c r="DX11" s="16"/>
+      <c r="DY11" s="16"/>
+      <c r="DZ11" s="16"/>
+      <c r="EA11" s="16"/>
+      <c r="EB11" s="16"/>
+      <c r="EC11" s="14"/>
     </row>
     <row r="12" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -3888,288 +3815,288 @@
       <c r="BH12" s="3">
         <v>271</v>
       </c>
-      <c r="BI12" s="20">
+      <c r="BI12" s="12">
         <v>273</v>
       </c>
       <c r="BJ12" s="3">
         <v>276</v>
       </c>
       <c r="BK12" s="3"/>
-      <c r="BL12" s="23"/>
-      <c r="BM12" s="22"/>
-      <c r="BN12" s="22"/>
-      <c r="BO12" s="22"/>
-      <c r="BP12" s="22"/>
-      <c r="BQ12" s="22"/>
-      <c r="BR12" s="22"/>
-      <c r="BS12" s="22"/>
-      <c r="BT12" s="22"/>
-      <c r="BU12" s="22"/>
-      <c r="BV12" s="22"/>
-      <c r="BW12" s="22"/>
-      <c r="BX12" s="22"/>
-      <c r="BY12" s="22"/>
-      <c r="BZ12" s="23"/>
-      <c r="CA12" s="23"/>
-      <c r="CB12" s="23"/>
-      <c r="CC12" s="23"/>
-      <c r="CD12" s="23"/>
-      <c r="CE12" s="24"/>
-      <c r="CF12" s="24"/>
-      <c r="CG12" s="24"/>
-      <c r="CH12" s="24"/>
-      <c r="CI12" s="23"/>
-      <c r="CJ12" s="23"/>
-      <c r="CK12" s="23"/>
-      <c r="CL12" s="23"/>
-      <c r="CM12" s="23"/>
-      <c r="CN12" s="23"/>
-      <c r="CO12" s="22"/>
-      <c r="CP12" s="22"/>
-      <c r="CQ12" s="22"/>
-      <c r="CR12" s="22"/>
-      <c r="CS12" s="22"/>
-      <c r="CT12" s="22"/>
-      <c r="CU12" s="22"/>
-      <c r="CV12" s="22"/>
-      <c r="CW12" s="22"/>
-      <c r="CX12" s="22"/>
-      <c r="CY12" s="22"/>
-      <c r="CZ12" s="22"/>
-      <c r="DA12" s="22"/>
-      <c r="DB12" s="22"/>
-      <c r="DC12" s="22"/>
-      <c r="DD12" s="22"/>
-      <c r="DE12" s="22"/>
-      <c r="DF12" s="22"/>
-      <c r="DG12" s="22"/>
-      <c r="DH12" s="22"/>
-      <c r="DI12" s="23"/>
-      <c r="DJ12" s="23"/>
-      <c r="DK12" s="23"/>
-      <c r="DL12" s="23"/>
-      <c r="DM12" s="23"/>
-      <c r="DN12" s="22"/>
-      <c r="DO12" s="22"/>
-      <c r="DP12" s="22"/>
-      <c r="DQ12" s="22"/>
-      <c r="DR12" s="22"/>
-      <c r="DS12" s="22"/>
-      <c r="DT12" s="22"/>
-      <c r="DU12" s="23"/>
-      <c r="DV12" s="23"/>
-      <c r="DW12" s="23"/>
-      <c r="DX12" s="23"/>
-      <c r="DY12" s="23"/>
-      <c r="DZ12" s="23"/>
-      <c r="EA12" s="24"/>
-      <c r="EB12" s="23"/>
-      <c r="EC12" s="22"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="14"/>
+      <c r="BN12" s="14"/>
+      <c r="BO12" s="14"/>
+      <c r="BP12" s="14"/>
+      <c r="BQ12" s="14"/>
+      <c r="BR12" s="14"/>
+      <c r="BS12" s="14"/>
+      <c r="BT12" s="14"/>
+      <c r="BU12" s="14"/>
+      <c r="BV12" s="14"/>
+      <c r="BW12" s="14"/>
+      <c r="BX12" s="14"/>
+      <c r="BY12" s="14"/>
+      <c r="BZ12" s="15"/>
+      <c r="CA12" s="15"/>
+      <c r="CB12" s="15"/>
+      <c r="CC12" s="15"/>
+      <c r="CD12" s="15"/>
+      <c r="CE12" s="16"/>
+      <c r="CF12" s="16"/>
+      <c r="CG12" s="16"/>
+      <c r="CH12" s="16"/>
+      <c r="CI12" s="15"/>
+      <c r="CJ12" s="15"/>
+      <c r="CK12" s="15"/>
+      <c r="CL12" s="15"/>
+      <c r="CM12" s="15"/>
+      <c r="CN12" s="15"/>
+      <c r="CO12" s="14"/>
+      <c r="CP12" s="14"/>
+      <c r="CQ12" s="14"/>
+      <c r="CR12" s="14"/>
+      <c r="CS12" s="14"/>
+      <c r="CT12" s="14"/>
+      <c r="CU12" s="14"/>
+      <c r="CV12" s="14"/>
+      <c r="CW12" s="14"/>
+      <c r="CX12" s="14"/>
+      <c r="CY12" s="14"/>
+      <c r="CZ12" s="14"/>
+      <c r="DA12" s="14"/>
+      <c r="DB12" s="14"/>
+      <c r="DC12" s="14"/>
+      <c r="DD12" s="14"/>
+      <c r="DE12" s="14"/>
+      <c r="DF12" s="14"/>
+      <c r="DG12" s="14"/>
+      <c r="DH12" s="14"/>
+      <c r="DI12" s="15"/>
+      <c r="DJ12" s="15"/>
+      <c r="DK12" s="15"/>
+      <c r="DL12" s="15"/>
+      <c r="DM12" s="15"/>
+      <c r="DN12" s="14"/>
+      <c r="DO12" s="14"/>
+      <c r="DP12" s="14"/>
+      <c r="DQ12" s="14"/>
+      <c r="DR12" s="14"/>
+      <c r="DS12" s="14"/>
+      <c r="DT12" s="14"/>
+      <c r="DU12" s="15"/>
+      <c r="DV12" s="15"/>
+      <c r="DW12" s="15"/>
+      <c r="DX12" s="15"/>
+      <c r="DY12" s="15"/>
+      <c r="DZ12" s="15"/>
+      <c r="EA12" s="16"/>
+      <c r="EB12" s="15"/>
+      <c r="EC12" s="14"/>
     </row>
-    <row r="13" spans="1:133" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:133" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>205</v>
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>206</v>
+      <c r="E13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9" t="s">
-        <v>207</v>
+      <c r="J13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="9" t="s">
-        <v>207</v>
+      <c r="P13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="9" t="s">
-        <v>207</v>
+      <c r="R13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="9" t="s">
-        <v>201</v>
+      <c r="T13" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="U13" s="3"/>
-      <c r="V13" s="9" t="s">
-        <v>207</v>
+      <c r="V13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="W13" s="3"/>
-      <c r="X13" s="9" t="s">
-        <v>207</v>
+      <c r="X13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="9" t="s">
-        <v>207</v>
+      <c r="Z13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="9" t="s">
-        <v>207</v>
+      <c r="AB13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="9" t="s">
-        <v>207</v>
+      <c r="AD13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="9" t="s">
-        <v>204</v>
+      <c r="AF13" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="9" t="s">
-        <v>207</v>
+      <c r="AI13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="9" t="s">
-        <v>207</v>
+      <c r="AK13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="AL13" s="3"/>
-      <c r="AM13" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9" t="s">
-        <v>207</v>
+      <c r="AM13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="AP13" s="3"/>
-      <c r="AQ13" s="9" t="s">
-        <v>207</v>
+      <c r="AQ13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="AR13" s="3"/>
-      <c r="AS13" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT13" s="16"/>
+      <c r="AS13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="9" t="s">
-        <v>207</v>
+      <c r="AV13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="AW13" s="3"/>
-      <c r="AX13" s="9" t="s">
-        <v>207</v>
+      <c r="AX13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="AY13" s="3"/>
-      <c r="AZ13" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="9" t="s">
-        <v>207</v>
+      <c r="AZ13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="BC13" s="3"/>
-      <c r="BD13" s="9" t="s">
-        <v>207</v>
+      <c r="BD13" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="BE13" s="3"/>
-      <c r="BF13" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="BG13" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="BH13" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI13" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="BJ13" s="9"/>
+      <c r="BF13" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BH13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="BI13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
-      <c r="BL13" s="24"/>
-      <c r="BM13" s="22"/>
-      <c r="BN13" s="22"/>
-      <c r="BO13" s="22"/>
-      <c r="BP13" s="22"/>
-      <c r="BQ13" s="22"/>
-      <c r="BR13" s="22"/>
-      <c r="BS13" s="22"/>
-      <c r="BT13" s="22"/>
-      <c r="BU13" s="22"/>
-      <c r="BV13" s="22"/>
-      <c r="BW13" s="22"/>
-      <c r="BX13" s="22"/>
-      <c r="BY13" s="22"/>
-      <c r="BZ13" s="24"/>
-      <c r="CA13" s="24"/>
-      <c r="CB13" s="25"/>
-      <c r="CC13" s="24"/>
-      <c r="CD13" s="24"/>
-      <c r="CE13" s="24"/>
-      <c r="CF13" s="24"/>
-      <c r="CG13" s="25"/>
-      <c r="CH13" s="24"/>
-      <c r="CI13" s="24"/>
-      <c r="CJ13" s="24"/>
-      <c r="CK13" s="24"/>
-      <c r="CL13" s="25"/>
-      <c r="CM13" s="24"/>
-      <c r="CN13" s="24"/>
-      <c r="CO13" s="22"/>
-      <c r="CP13" s="22"/>
-      <c r="CQ13" s="22"/>
-      <c r="CR13" s="22"/>
-      <c r="CS13" s="22"/>
-      <c r="CT13" s="22"/>
-      <c r="CU13" s="22"/>
-      <c r="CV13" s="22"/>
-      <c r="CW13" s="22"/>
-      <c r="CX13" s="22"/>
-      <c r="CY13" s="22"/>
-      <c r="CZ13" s="22"/>
-      <c r="DA13" s="22"/>
-      <c r="DB13" s="22"/>
-      <c r="DC13" s="22"/>
-      <c r="DD13" s="22"/>
-      <c r="DE13" s="22"/>
-      <c r="DF13" s="22"/>
-      <c r="DG13" s="22"/>
-      <c r="DH13" s="22"/>
-      <c r="DI13" s="26"/>
-      <c r="DJ13" s="24"/>
-      <c r="DK13" s="24"/>
-      <c r="DL13" s="24"/>
-      <c r="DM13" s="24"/>
-      <c r="DN13" s="22"/>
-      <c r="DO13" s="22"/>
-      <c r="DP13" s="22"/>
-      <c r="DQ13" s="22"/>
-      <c r="DR13" s="22"/>
-      <c r="DS13" s="22"/>
-      <c r="DT13" s="22"/>
-      <c r="DU13" s="24"/>
-      <c r="DV13" s="24"/>
-      <c r="DW13" s="24"/>
-      <c r="DX13" s="24"/>
-      <c r="DY13" s="24"/>
-      <c r="DZ13" s="24"/>
-      <c r="EA13" s="24"/>
-      <c r="EB13" s="24"/>
-      <c r="EC13" s="22"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="14"/>
+      <c r="BN13" s="14"/>
+      <c r="BO13" s="14"/>
+      <c r="BP13" s="14"/>
+      <c r="BQ13" s="14"/>
+      <c r="BR13" s="14"/>
+      <c r="BS13" s="14"/>
+      <c r="BT13" s="14"/>
+      <c r="BU13" s="14"/>
+      <c r="BV13" s="14"/>
+      <c r="BW13" s="14"/>
+      <c r="BX13" s="14"/>
+      <c r="BY13" s="14"/>
+      <c r="BZ13" s="16"/>
+      <c r="CA13" s="16"/>
+      <c r="CB13" s="17"/>
+      <c r="CC13" s="16"/>
+      <c r="CD13" s="16"/>
+      <c r="CE13" s="16"/>
+      <c r="CF13" s="16"/>
+      <c r="CG13" s="17"/>
+      <c r="CH13" s="16"/>
+      <c r="CI13" s="16"/>
+      <c r="CJ13" s="16"/>
+      <c r="CK13" s="16"/>
+      <c r="CL13" s="17"/>
+      <c r="CM13" s="16"/>
+      <c r="CN13" s="16"/>
+      <c r="CO13" s="14"/>
+      <c r="CP13" s="14"/>
+      <c r="CQ13" s="14"/>
+      <c r="CR13" s="14"/>
+      <c r="CS13" s="14"/>
+      <c r="CT13" s="14"/>
+      <c r="CU13" s="14"/>
+      <c r="CV13" s="14"/>
+      <c r="CW13" s="14"/>
+      <c r="CX13" s="14"/>
+      <c r="CY13" s="14"/>
+      <c r="CZ13" s="14"/>
+      <c r="DA13" s="14"/>
+      <c r="DB13" s="14"/>
+      <c r="DC13" s="14"/>
+      <c r="DD13" s="14"/>
+      <c r="DE13" s="14"/>
+      <c r="DF13" s="14"/>
+      <c r="DG13" s="14"/>
+      <c r="DH13" s="14"/>
+      <c r="DI13" s="18"/>
+      <c r="DJ13" s="16"/>
+      <c r="DK13" s="16"/>
+      <c r="DL13" s="16"/>
+      <c r="DM13" s="16"/>
+      <c r="DN13" s="14"/>
+      <c r="DO13" s="14"/>
+      <c r="DP13" s="14"/>
+      <c r="DQ13" s="14"/>
+      <c r="DR13" s="14"/>
+      <c r="DS13" s="14"/>
+      <c r="DT13" s="14"/>
+      <c r="DU13" s="16"/>
+      <c r="DV13" s="16"/>
+      <c r="DW13" s="16"/>
+      <c r="DX13" s="16"/>
+      <c r="DY13" s="16"/>
+      <c r="DZ13" s="16"/>
+      <c r="EA13" s="16"/>
+      <c r="EB13" s="16"/>
+      <c r="EC13" s="14"/>
     </row>
     <row r="14" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -4288,85 +4215,85 @@
       <c r="BH14" s="3">
         <v>271</v>
       </c>
-      <c r="BI14" s="20">
+      <c r="BI14" s="12">
         <v>273</v>
       </c>
       <c r="BJ14" s="4"/>
       <c r="BK14" s="4"/>
-      <c r="BL14" s="23"/>
-      <c r="BM14" s="22"/>
-      <c r="BN14" s="22"/>
-      <c r="BO14" s="22"/>
-      <c r="BP14" s="22"/>
-      <c r="BQ14" s="22"/>
-      <c r="BR14" s="22"/>
-      <c r="BS14" s="22"/>
-      <c r="BT14" s="22"/>
-      <c r="BU14" s="22"/>
-      <c r="BV14" s="22"/>
-      <c r="BW14" s="22"/>
-      <c r="BX14" s="22"/>
-      <c r="BY14" s="22"/>
-      <c r="BZ14" s="23"/>
-      <c r="CA14" s="23"/>
-      <c r="CB14" s="23"/>
-      <c r="CC14" s="23"/>
-      <c r="CD14" s="23"/>
-      <c r="CE14" s="24"/>
-      <c r="CF14" s="24"/>
-      <c r="CG14" s="24"/>
-      <c r="CH14" s="24"/>
-      <c r="CI14" s="23"/>
-      <c r="CJ14" s="23"/>
-      <c r="CK14" s="23"/>
-      <c r="CL14" s="23"/>
-      <c r="CM14" s="23"/>
-      <c r="CN14" s="23"/>
-      <c r="CO14" s="23"/>
-      <c r="CP14" s="24"/>
-      <c r="CQ14" s="23"/>
-      <c r="CR14" s="23"/>
-      <c r="CS14" s="23"/>
-      <c r="CT14" s="23"/>
-      <c r="CU14" s="23"/>
-      <c r="CV14" s="23"/>
-      <c r="CW14" s="23"/>
-      <c r="CX14" s="23"/>
-      <c r="CY14" s="22"/>
-      <c r="CZ14" s="22"/>
-      <c r="DA14" s="22"/>
-      <c r="DB14" s="22"/>
-      <c r="DC14" s="22"/>
-      <c r="DD14" s="22"/>
-      <c r="DE14" s="22"/>
-      <c r="DF14" s="22"/>
-      <c r="DG14" s="22"/>
-      <c r="DH14" s="22"/>
-      <c r="DI14" s="23"/>
-      <c r="DJ14" s="23"/>
-      <c r="DK14" s="23"/>
-      <c r="DL14" s="23"/>
-      <c r="DM14" s="23"/>
-      <c r="DN14" s="23"/>
-      <c r="DO14" s="23"/>
-      <c r="DP14" s="24"/>
-      <c r="DQ14" s="24"/>
-      <c r="DR14" s="24"/>
-      <c r="DS14" s="24"/>
-      <c r="DT14" s="23"/>
-      <c r="DU14" s="23"/>
-      <c r="DV14" s="23"/>
-      <c r="DW14" s="23"/>
-      <c r="DX14" s="23"/>
-      <c r="DY14" s="23"/>
-      <c r="DZ14" s="23"/>
-      <c r="EA14" s="24"/>
-      <c r="EB14" s="23"/>
-      <c r="EC14" s="22"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="14"/>
+      <c r="BN14" s="14"/>
+      <c r="BO14" s="14"/>
+      <c r="BP14" s="14"/>
+      <c r="BQ14" s="14"/>
+      <c r="BR14" s="14"/>
+      <c r="BS14" s="14"/>
+      <c r="BT14" s="14"/>
+      <c r="BU14" s="14"/>
+      <c r="BV14" s="14"/>
+      <c r="BW14" s="14"/>
+      <c r="BX14" s="14"/>
+      <c r="BY14" s="14"/>
+      <c r="BZ14" s="15"/>
+      <c r="CA14" s="15"/>
+      <c r="CB14" s="15"/>
+      <c r="CC14" s="15"/>
+      <c r="CD14" s="15"/>
+      <c r="CE14" s="16"/>
+      <c r="CF14" s="16"/>
+      <c r="CG14" s="16"/>
+      <c r="CH14" s="16"/>
+      <c r="CI14" s="15"/>
+      <c r="CJ14" s="15"/>
+      <c r="CK14" s="15"/>
+      <c r="CL14" s="15"/>
+      <c r="CM14" s="15"/>
+      <c r="CN14" s="15"/>
+      <c r="CO14" s="15"/>
+      <c r="CP14" s="16"/>
+      <c r="CQ14" s="15"/>
+      <c r="CR14" s="15"/>
+      <c r="CS14" s="15"/>
+      <c r="CT14" s="15"/>
+      <c r="CU14" s="15"/>
+      <c r="CV14" s="15"/>
+      <c r="CW14" s="15"/>
+      <c r="CX14" s="15"/>
+      <c r="CY14" s="14"/>
+      <c r="CZ14" s="14"/>
+      <c r="DA14" s="14"/>
+      <c r="DB14" s="14"/>
+      <c r="DC14" s="14"/>
+      <c r="DD14" s="14"/>
+      <c r="DE14" s="14"/>
+      <c r="DF14" s="14"/>
+      <c r="DG14" s="14"/>
+      <c r="DH14" s="14"/>
+      <c r="DI14" s="15"/>
+      <c r="DJ14" s="15"/>
+      <c r="DK14" s="15"/>
+      <c r="DL14" s="15"/>
+      <c r="DM14" s="15"/>
+      <c r="DN14" s="15"/>
+      <c r="DO14" s="15"/>
+      <c r="DP14" s="16"/>
+      <c r="DQ14" s="16"/>
+      <c r="DR14" s="16"/>
+      <c r="DS14" s="16"/>
+      <c r="DT14" s="15"/>
+      <c r="DU14" s="15"/>
+      <c r="DV14" s="15"/>
+      <c r="DW14" s="15"/>
+      <c r="DX14" s="15"/>
+      <c r="DY14" s="15"/>
+      <c r="DZ14" s="15"/>
+      <c r="EA14" s="16"/>
+      <c r="EB14" s="15"/>
+      <c r="EC14" s="14"/>
     </row>
     <row r="15" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -4545,7 +4472,7 @@
       <c r="BH15" s="3">
         <v>271</v>
       </c>
-      <c r="BI15" s="20">
+      <c r="BI15" s="12">
         <v>273</v>
       </c>
       <c r="BJ15" s="3">
@@ -4554,220 +4481,220 @@
       <c r="BK15" s="3">
         <v>279</v>
       </c>
-      <c r="BL15" s="22"/>
-      <c r="BM15" s="22"/>
-      <c r="BN15" s="22"/>
-      <c r="BO15" s="22"/>
-      <c r="BP15" s="22"/>
-      <c r="BQ15" s="22"/>
-      <c r="BR15" s="22"/>
-      <c r="BS15" s="22"/>
-      <c r="BT15" s="22"/>
-      <c r="BU15" s="22"/>
-      <c r="BV15" s="22"/>
-      <c r="BW15" s="22"/>
-      <c r="BX15" s="22"/>
-      <c r="BY15" s="22"/>
-      <c r="BZ15" s="22"/>
-      <c r="CA15" s="22"/>
-      <c r="CB15" s="22"/>
-      <c r="CC15" s="22"/>
-      <c r="CD15" s="22"/>
-      <c r="CE15" s="22"/>
-      <c r="CF15" s="22"/>
-      <c r="CG15" s="22"/>
-      <c r="CH15" s="22"/>
-      <c r="CI15" s="22"/>
-      <c r="CJ15" s="22"/>
-      <c r="CK15" s="22"/>
-      <c r="CL15" s="22"/>
-      <c r="CM15" s="22"/>
-      <c r="CN15" s="22"/>
-      <c r="CO15" s="22"/>
-      <c r="CP15" s="22"/>
-      <c r="CQ15" s="22"/>
-      <c r="CR15" s="22"/>
-      <c r="CS15" s="22"/>
-      <c r="CT15" s="22"/>
-      <c r="CU15" s="22"/>
-      <c r="CV15" s="22"/>
-      <c r="CW15" s="22"/>
-      <c r="CX15" s="22"/>
-      <c r="CY15" s="22"/>
-      <c r="CZ15" s="22"/>
-      <c r="DA15" s="22"/>
-      <c r="DB15" s="22"/>
-      <c r="DC15" s="22"/>
-      <c r="DD15" s="22"/>
-      <c r="DE15" s="22"/>
-      <c r="DF15" s="22"/>
-      <c r="DG15" s="22"/>
-      <c r="DH15" s="22"/>
-      <c r="DI15" s="22"/>
-      <c r="DJ15" s="22"/>
-      <c r="DK15" s="22"/>
-      <c r="DL15" s="22"/>
-      <c r="DM15" s="22"/>
-      <c r="DN15" s="22"/>
-      <c r="DO15" s="22"/>
-      <c r="DP15" s="22"/>
-      <c r="DQ15" s="22"/>
-      <c r="DR15" s="22"/>
-      <c r="DS15" s="22"/>
-      <c r="DT15" s="22"/>
-      <c r="DU15" s="22"/>
-      <c r="DV15" s="22"/>
-      <c r="DW15" s="22"/>
-      <c r="DX15" s="22"/>
-      <c r="DY15" s="22"/>
-      <c r="DZ15" s="22"/>
-      <c r="EA15" s="22"/>
-      <c r="EB15" s="22"/>
-      <c r="EC15" s="22"/>
+      <c r="BL15" s="14"/>
+      <c r="BM15" s="14"/>
+      <c r="BN15" s="14"/>
+      <c r="BO15" s="14"/>
+      <c r="BP15" s="14"/>
+      <c r="BQ15" s="14"/>
+      <c r="BR15" s="14"/>
+      <c r="BS15" s="14"/>
+      <c r="BT15" s="14"/>
+      <c r="BU15" s="14"/>
+      <c r="BV15" s="14"/>
+      <c r="BW15" s="14"/>
+      <c r="BX15" s="14"/>
+      <c r="BY15" s="14"/>
+      <c r="BZ15" s="14"/>
+      <c r="CA15" s="14"/>
+      <c r="CB15" s="14"/>
+      <c r="CC15" s="14"/>
+      <c r="CD15" s="14"/>
+      <c r="CE15" s="14"/>
+      <c r="CF15" s="14"/>
+      <c r="CG15" s="14"/>
+      <c r="CH15" s="14"/>
+      <c r="CI15" s="14"/>
+      <c r="CJ15" s="14"/>
+      <c r="CK15" s="14"/>
+      <c r="CL15" s="14"/>
+      <c r="CM15" s="14"/>
+      <c r="CN15" s="14"/>
+      <c r="CO15" s="14"/>
+      <c r="CP15" s="14"/>
+      <c r="CQ15" s="14"/>
+      <c r="CR15" s="14"/>
+      <c r="CS15" s="14"/>
+      <c r="CT15" s="14"/>
+      <c r="CU15" s="14"/>
+      <c r="CV15" s="14"/>
+      <c r="CW15" s="14"/>
+      <c r="CX15" s="14"/>
+      <c r="CY15" s="14"/>
+      <c r="CZ15" s="14"/>
+      <c r="DA15" s="14"/>
+      <c r="DB15" s="14"/>
+      <c r="DC15" s="14"/>
+      <c r="DD15" s="14"/>
+      <c r="DE15" s="14"/>
+      <c r="DF15" s="14"/>
+      <c r="DG15" s="14"/>
+      <c r="DH15" s="14"/>
+      <c r="DI15" s="14"/>
+      <c r="DJ15" s="14"/>
+      <c r="DK15" s="14"/>
+      <c r="DL15" s="14"/>
+      <c r="DM15" s="14"/>
+      <c r="DN15" s="14"/>
+      <c r="DO15" s="14"/>
+      <c r="DP15" s="14"/>
+      <c r="DQ15" s="14"/>
+      <c r="DR15" s="14"/>
+      <c r="DS15" s="14"/>
+      <c r="DT15" s="14"/>
+      <c r="DU15" s="14"/>
+      <c r="DV15" s="14"/>
+      <c r="DW15" s="14"/>
+      <c r="DX15" s="14"/>
+      <c r="DY15" s="14"/>
+      <c r="DZ15" s="14"/>
+      <c r="EA15" s="14"/>
+      <c r="EB15" s="14"/>
+      <c r="EC15" s="14"/>
     </row>
     <row r="16" spans="1:133" x14ac:dyDescent="0.3">
-      <c r="BL16" s="22"/>
-      <c r="BM16" s="22"/>
-      <c r="BN16" s="22"/>
-      <c r="BO16" s="22"/>
-      <c r="BP16" s="22"/>
-      <c r="BQ16" s="22"/>
-      <c r="BR16" s="22"/>
-      <c r="BS16" s="22"/>
-      <c r="BT16" s="22"/>
-      <c r="BU16" s="22"/>
-      <c r="BV16" s="22"/>
-      <c r="BW16" s="22"/>
-      <c r="BX16" s="22"/>
-      <c r="BY16" s="22"/>
-      <c r="BZ16" s="22"/>
-      <c r="CA16" s="22"/>
-      <c r="CB16" s="22"/>
-      <c r="CC16" s="22"/>
-      <c r="CD16" s="22"/>
-      <c r="CE16" s="22"/>
-      <c r="CF16" s="22"/>
-      <c r="CG16" s="22"/>
-      <c r="CH16" s="22"/>
-      <c r="CI16" s="22"/>
-      <c r="CJ16" s="22"/>
-      <c r="CK16" s="22"/>
-      <c r="CL16" s="22"/>
-      <c r="CM16" s="22"/>
-      <c r="CN16" s="22"/>
-      <c r="CO16" s="22"/>
-      <c r="CP16" s="22"/>
-      <c r="CQ16" s="22"/>
-      <c r="CR16" s="22"/>
-      <c r="CS16" s="22"/>
-      <c r="CT16" s="22"/>
-      <c r="CU16" s="22"/>
-      <c r="CV16" s="22"/>
-      <c r="CW16" s="22"/>
-      <c r="CX16" s="22"/>
-      <c r="CY16" s="22"/>
-      <c r="CZ16" s="22"/>
-      <c r="DA16" s="22"/>
-      <c r="DB16" s="22"/>
-      <c r="DC16" s="22"/>
-      <c r="DD16" s="22"/>
-      <c r="DE16" s="22"/>
-      <c r="DF16" s="22"/>
-      <c r="DG16" s="22"/>
-      <c r="DH16" s="22"/>
-      <c r="DI16" s="22"/>
-      <c r="DJ16" s="22"/>
-      <c r="DK16" s="22"/>
-      <c r="DL16" s="22"/>
-      <c r="DM16" s="22"/>
-      <c r="DN16" s="22"/>
-      <c r="DO16" s="22"/>
-      <c r="DP16" s="22"/>
-      <c r="DQ16" s="22"/>
-      <c r="DR16" s="22"/>
-      <c r="DS16" s="22"/>
-      <c r="DT16" s="22"/>
-      <c r="DU16" s="22"/>
-      <c r="DV16" s="22"/>
-      <c r="DW16" s="22"/>
-      <c r="DX16" s="22"/>
-      <c r="DY16" s="22"/>
-      <c r="DZ16" s="22"/>
-      <c r="EA16" s="22"/>
-      <c r="EB16" s="22"/>
-      <c r="EC16" s="22"/>
+      <c r="BL16" s="14"/>
+      <c r="BM16" s="14"/>
+      <c r="BN16" s="14"/>
+      <c r="BO16" s="14"/>
+      <c r="BP16" s="14"/>
+      <c r="BQ16" s="14"/>
+      <c r="BR16" s="14"/>
+      <c r="BS16" s="14"/>
+      <c r="BT16" s="14"/>
+      <c r="BU16" s="14"/>
+      <c r="BV16" s="14"/>
+      <c r="BW16" s="14"/>
+      <c r="BX16" s="14"/>
+      <c r="BY16" s="14"/>
+      <c r="BZ16" s="14"/>
+      <c r="CA16" s="14"/>
+      <c r="CB16" s="14"/>
+      <c r="CC16" s="14"/>
+      <c r="CD16" s="14"/>
+      <c r="CE16" s="14"/>
+      <c r="CF16" s="14"/>
+      <c r="CG16" s="14"/>
+      <c r="CH16" s="14"/>
+      <c r="CI16" s="14"/>
+      <c r="CJ16" s="14"/>
+      <c r="CK16" s="14"/>
+      <c r="CL16" s="14"/>
+      <c r="CM16" s="14"/>
+      <c r="CN16" s="14"/>
+      <c r="CO16" s="14"/>
+      <c r="CP16" s="14"/>
+      <c r="CQ16" s="14"/>
+      <c r="CR16" s="14"/>
+      <c r="CS16" s="14"/>
+      <c r="CT16" s="14"/>
+      <c r="CU16" s="14"/>
+      <c r="CV16" s="14"/>
+      <c r="CW16" s="14"/>
+      <c r="CX16" s="14"/>
+      <c r="CY16" s="14"/>
+      <c r="CZ16" s="14"/>
+      <c r="DA16" s="14"/>
+      <c r="DB16" s="14"/>
+      <c r="DC16" s="14"/>
+      <c r="DD16" s="14"/>
+      <c r="DE16" s="14"/>
+      <c r="DF16" s="14"/>
+      <c r="DG16" s="14"/>
+      <c r="DH16" s="14"/>
+      <c r="DI16" s="14"/>
+      <c r="DJ16" s="14"/>
+      <c r="DK16" s="14"/>
+      <c r="DL16" s="14"/>
+      <c r="DM16" s="14"/>
+      <c r="DN16" s="14"/>
+      <c r="DO16" s="14"/>
+      <c r="DP16" s="14"/>
+      <c r="DQ16" s="14"/>
+      <c r="DR16" s="14"/>
+      <c r="DS16" s="14"/>
+      <c r="DT16" s="14"/>
+      <c r="DU16" s="14"/>
+      <c r="DV16" s="14"/>
+      <c r="DW16" s="14"/>
+      <c r="DX16" s="14"/>
+      <c r="DY16" s="14"/>
+      <c r="DZ16" s="14"/>
+      <c r="EA16" s="14"/>
+      <c r="EB16" s="14"/>
+      <c r="EC16" s="14"/>
     </row>
     <row r="17" spans="64:133" x14ac:dyDescent="0.3">
-      <c r="BL17" s="22"/>
-      <c r="BM17" s="22"/>
-      <c r="BN17" s="22"/>
-      <c r="BO17" s="22"/>
-      <c r="BP17" s="22"/>
-      <c r="BQ17" s="22"/>
-      <c r="BR17" s="22"/>
-      <c r="BS17" s="22"/>
-      <c r="BT17" s="22"/>
-      <c r="BU17" s="22"/>
-      <c r="BV17" s="22"/>
-      <c r="BW17" s="22"/>
-      <c r="BX17" s="22"/>
-      <c r="BY17" s="22"/>
-      <c r="BZ17" s="22"/>
-      <c r="CA17" s="22"/>
-      <c r="CB17" s="22"/>
-      <c r="CC17" s="22"/>
-      <c r="CD17" s="22"/>
-      <c r="CE17" s="22"/>
-      <c r="CF17" s="22"/>
-      <c r="CG17" s="22"/>
-      <c r="CH17" s="22"/>
-      <c r="CI17" s="22"/>
-      <c r="CJ17" s="22"/>
-      <c r="CK17" s="22"/>
-      <c r="CL17" s="22"/>
-      <c r="CM17" s="22"/>
-      <c r="CN17" s="22"/>
-      <c r="CO17" s="22"/>
-      <c r="CP17" s="22"/>
-      <c r="CQ17" s="22"/>
-      <c r="CR17" s="22"/>
-      <c r="CS17" s="22"/>
-      <c r="CT17" s="22"/>
-      <c r="CU17" s="22"/>
-      <c r="CV17" s="22"/>
-      <c r="CW17" s="22"/>
-      <c r="CX17" s="22"/>
-      <c r="CY17" s="22"/>
-      <c r="CZ17" s="22"/>
-      <c r="DA17" s="22"/>
-      <c r="DB17" s="22"/>
-      <c r="DC17" s="22"/>
-      <c r="DD17" s="22"/>
-      <c r="DE17" s="22"/>
-      <c r="DF17" s="22"/>
-      <c r="DG17" s="22"/>
-      <c r="DH17" s="22"/>
-      <c r="DI17" s="22"/>
-      <c r="DJ17" s="22"/>
-      <c r="DK17" s="22"/>
-      <c r="DL17" s="22"/>
-      <c r="DM17" s="22"/>
-      <c r="DN17" s="22"/>
-      <c r="DO17" s="22"/>
-      <c r="DP17" s="22"/>
-      <c r="DQ17" s="22"/>
-      <c r="DR17" s="22"/>
-      <c r="DS17" s="22"/>
-      <c r="DT17" s="22"/>
-      <c r="DU17" s="22"/>
-      <c r="DV17" s="22"/>
-      <c r="DW17" s="22"/>
-      <c r="DX17" s="22"/>
-      <c r="DY17" s="22"/>
-      <c r="DZ17" s="22"/>
-      <c r="EA17" s="22"/>
-      <c r="EB17" s="22"/>
-      <c r="EC17" s="22"/>
+      <c r="BL17" s="14"/>
+      <c r="BM17" s="14"/>
+      <c r="BN17" s="14"/>
+      <c r="BO17" s="14"/>
+      <c r="BP17" s="14"/>
+      <c r="BQ17" s="14"/>
+      <c r="BR17" s="14"/>
+      <c r="BS17" s="14"/>
+      <c r="BT17" s="14"/>
+      <c r="BU17" s="14"/>
+      <c r="BV17" s="14"/>
+      <c r="BW17" s="14"/>
+      <c r="BX17" s="14"/>
+      <c r="BY17" s="14"/>
+      <c r="BZ17" s="14"/>
+      <c r="CA17" s="14"/>
+      <c r="CB17" s="14"/>
+      <c r="CC17" s="14"/>
+      <c r="CD17" s="14"/>
+      <c r="CE17" s="14"/>
+      <c r="CF17" s="14"/>
+      <c r="CG17" s="14"/>
+      <c r="CH17" s="14"/>
+      <c r="CI17" s="14"/>
+      <c r="CJ17" s="14"/>
+      <c r="CK17" s="14"/>
+      <c r="CL17" s="14"/>
+      <c r="CM17" s="14"/>
+      <c r="CN17" s="14"/>
+      <c r="CO17" s="14"/>
+      <c r="CP17" s="14"/>
+      <c r="CQ17" s="14"/>
+      <c r="CR17" s="14"/>
+      <c r="CS17" s="14"/>
+      <c r="CT17" s="14"/>
+      <c r="CU17" s="14"/>
+      <c r="CV17" s="14"/>
+      <c r="CW17" s="14"/>
+      <c r="CX17" s="14"/>
+      <c r="CY17" s="14"/>
+      <c r="CZ17" s="14"/>
+      <c r="DA17" s="14"/>
+      <c r="DB17" s="14"/>
+      <c r="DC17" s="14"/>
+      <c r="DD17" s="14"/>
+      <c r="DE17" s="14"/>
+      <c r="DF17" s="14"/>
+      <c r="DG17" s="14"/>
+      <c r="DH17" s="14"/>
+      <c r="DI17" s="14"/>
+      <c r="DJ17" s="14"/>
+      <c r="DK17" s="14"/>
+      <c r="DL17" s="14"/>
+      <c r="DM17" s="14"/>
+      <c r="DN17" s="14"/>
+      <c r="DO17" s="14"/>
+      <c r="DP17" s="14"/>
+      <c r="DQ17" s="14"/>
+      <c r="DR17" s="14"/>
+      <c r="DS17" s="14"/>
+      <c r="DT17" s="14"/>
+      <c r="DU17" s="14"/>
+      <c r="DV17" s="14"/>
+      <c r="DW17" s="14"/>
+      <c r="DX17" s="14"/>
+      <c r="DY17" s="14"/>
+      <c r="DZ17" s="14"/>
+      <c r="EA17" s="14"/>
+      <c r="EB17" s="14"/>
+      <c r="EC17" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4778,49 +4705,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.77734375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="14" style="5" customWidth="1"/>
-    <col min="17" max="17" width="15.77734375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.21875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="14.77734375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="15" style="5" customWidth="1"/>
-    <col min="24" max="25" width="16.33203125" style="5" customWidth="1"/>
-    <col min="26" max="26" width="16.5546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.88671875" style="5" customWidth="1"/>
-    <col min="28" max="29" width="16.21875" style="5" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" style="5" customWidth="1"/>
-    <col min="31" max="31" width="15.44140625" style="5" customWidth="1"/>
-    <col min="32" max="32" width="16.109375" style="5" customWidth="1"/>
-    <col min="33" max="38" width="5.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="10.77734375" style="5"/>
+    <col min="28" max="28" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4855,14 +4783,8 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4897,112 +4819,100 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
     </row>
-    <row r="3" spans="1:38" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="T3" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -5093,96 +5003,84 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
     </row>
-    <row r="5" spans="1:38" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5257,53 +5155,47 @@
         <v>217</v>
       </c>
       <c r="AF6" s="3"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
     </row>
-    <row r="7" spans="1:38" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -5314,21 +5206,15 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="9" t="s">
-        <v>138</v>
+      <c r="AD7" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
+        <v>242</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -5376,7 +5262,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="4"/>
+      <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3">
         <v>214</v>
@@ -5385,114 +5271,102 @@
       <c r="AF8" s="3">
         <v>219</v>
       </c>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
     </row>
-    <row r="9" spans="1:38" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="R9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="T9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="W9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="Y9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="AA9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="AC9" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
+        <v>137</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -5585,19 +5459,13 @@
       <c r="AF10" s="3">
         <v>219</v>
       </c>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
     </row>
-    <row r="11" spans="1:38" ht="211.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -5609,7 +5477,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>15</v>
@@ -5618,81 +5486,75 @@
         <v>22</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="T11" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="W11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="X11" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="Y11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Z11" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="AA11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AB11" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="AC11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
+        <v>138</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -5785,96 +5647,84 @@
       <c r="AF12" s="3">
         <v>219</v>
       </c>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
     </row>
-    <row r="13" spans="1:38" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>213</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="9" t="s">
-        <v>215</v>
+      <c r="H13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="15" t="s">
-        <v>212</v>
+      <c r="L13" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="15" t="s">
-        <v>200</v>
+      <c r="N13" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>209</v>
+      <c r="P13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="U13" s="3"/>
-      <c r="V13" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>204</v>
+      <c r="V13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="9" t="s">
-        <v>205</v>
+      <c r="Z13" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC13" s="9" t="s">
-        <v>208</v>
+      <c r="AB13" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
+      <c r="AF13" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -5945,16 +5795,10 @@
       <c r="AF14" s="3">
         <v>219</v>
       </c>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3">
         <v>280</v>
@@ -6049,12 +5893,6 @@
       <c r="AF15" s="3">
         <v>499</v>
       </c>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6065,40 +5903,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="61.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>25</v>
@@ -6130,19 +5967,16 @@
       <c r="M1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>168</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>218</v>
+      <c r="B2" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>34</v>
@@ -6159,26 +5993,23 @@
       <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>205</v>
+      <c r="B3" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>36</v>
@@ -6187,34 +6018,31 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>230</v>
+      <c r="I3" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>170</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>205</v>
+        <v>161</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>36</v>
@@ -6223,34 +6051,31 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>234</v>
+      <c r="I4" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>171</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>205</v>
+        <v>162</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>36</v>
@@ -6259,131 +6084,119 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>238</v>
+      <c r="I5" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="12" t="s">
-        <v>172</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>205</v>
+        <v>163</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>205</v>
+        <v>164</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="E7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>183</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
+      <c r="E8" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6397,36 +6210,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AS16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.88671875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.21875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="16" style="5" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="20" style="5" customWidth="1"/>
-    <col min="19" max="19" width="15.77734375" style="5" customWidth="1"/>
-    <col min="20" max="21" width="17.109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="14.77734375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="17.44140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.5546875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="15.77734375" style="5" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="4.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="45" width="5.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="46" max="16384" width="10.77734375" style="5"/>
@@ -6634,59 +6448,59 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -6790,47 +6604,47 @@
       <c r="AR6" s="6"/>
       <c r="AS6" s="6"/>
     </row>
-    <row r="7" spans="1:45" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -6919,81 +6733,81 @@
       <c r="AR8" s="6"/>
       <c r="AS8" s="6"/>
     </row>
-    <row r="9" spans="1:45" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="132" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="O9" s="14" t="s">
+      <c r="R9" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="U9" s="14" t="s">
+      <c r="U9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>199</v>
+      <c r="X9" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -7113,34 +6927,82 @@
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="132" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="B11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="6"/>
@@ -7166,30 +7028,78 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
+        <v>23</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>10</v>
+      </c>
+      <c r="P12" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>10</v>
+      </c>
+      <c r="S12" s="3">
+        <v>23</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>10</v>
+      </c>
+      <c r="V12" s="4">
+        <v>23</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>23</v>
+      </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="6"/>
@@ -7211,81 +7121,81 @@
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
     </row>
-    <row r="13" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>202</v>
+      <c r="B13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -7310,7 +7220,7 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -7407,44 +7317,44 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="4"/>
       <c r="T15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -7471,7 +7381,7 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="6">
         <v>588</v>

--- a/app/src/main/res/raw/blessing_09182020_revised.xlsx
+++ b/app/src/main/res/raw/blessing_09182020_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weatherProject\exercise\MyApplication\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E629BD7-8069-47D4-BE0B-86B352EB03CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEE718D-DAB7-419A-947F-8DE0523E617A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="258">
   <si>
     <t>Voice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,21 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"She saw a great number of people with simple beddings sleeping under a big bridge, yet it was the rainy season."</t>
-  </si>
-  <si>
-    <t>"Out of curiosity, she asked one of the old men why he slpt under the big bridge."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"The old man replied,"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"And no matter it was sunny or rainy, we always had gree meals and shelters offered by local people or believers."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>What is the main idea of the story?</t>
   </si>
   <si>
@@ -113,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"We also showed our mutual respects and interpersonal relationships through local plays and parades."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,10 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>In a state of confusion, she suddenly spotted the old man among the ten believers, but he was all wet and looked tired.  The girl was worried and asked him,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>blessing15.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,10 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Now, we are moving on to the review section.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This is curiosity and it means an eager wish to know or learn about something.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -928,10 +905,6 @@
   </si>
   <si>
     <t>nnnoldman.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nngirl face.mp4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1507,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1520,16 +1493,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1542,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EC17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2170,22 +2143,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2200,7 +2173,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -2214,7 +2187,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
@@ -2229,7 +2202,7 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
@@ -2244,16 +2217,16 @@
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="BI5" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
@@ -2502,97 +2475,97 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
       <c r="AV7" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AW7" s="3"/>
       <c r="AX7" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AY7" s="3"/>
       <c r="AZ7" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
@@ -2601,7 +2574,7 @@
       <c r="BI7" s="12"/>
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="BL7" s="14"/>
       <c r="BM7" s="14"/>
@@ -2862,187 +2835,187 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="U9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y9" s="3" t="s">
+      <c r="AT9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AU9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="BG9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AH9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK9" s="3" t="s">
+      <c r="BH9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI9" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="AL9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO9" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD9" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BJ9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="BG9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI9" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ9" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="BK9" s="3"/>
       <c r="BL9" s="16"/>
@@ -3380,187 +3353,187 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="J11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R11" s="3" t="s">
+      <c r="AG11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AT11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AG11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS11" s="3" t="s">
+      <c r="BG11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AT11" s="3" t="s">
+      <c r="BH11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AU11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB11" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF11" s="3" t="s">
+      <c r="BI11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="BJ11" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="BG11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI11" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ11" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="BK11" s="3"/>
       <c r="BL11" s="16"/>
@@ -3895,131 +3868,131 @@
     </row>
     <row r="13" spans="1:133" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
       <c r="AV13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AY13" s="3"/>
       <c r="AZ13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="BA13" s="3"/>
       <c r="BB13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="BE13" s="3"/>
       <c r="BF13" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="BG13" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="BI13" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
@@ -4096,7 +4069,7 @@
     </row>
     <row r="14" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -4293,7 +4266,7 @@
     </row>
     <row r="15" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -4707,7 +4680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4825,88 +4798,88 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="P3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="U3" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
@@ -5009,74 +4982,74 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="Y5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AF5" s="3"/>
     </row>
@@ -5162,40 +5135,40 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -5207,11 +5180,11 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -5277,93 +5250,93 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="K9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="T9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="W9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="W9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="AC9" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
@@ -5371,7 +5344,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
@@ -5460,271 +5433,155 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3">
-        <v>30</v>
-      </c>
-      <c r="H12" s="3">
-        <v>46</v>
-      </c>
-      <c r="I12" s="3">
-        <v>54</v>
-      </c>
-      <c r="J12" s="3">
-        <v>58</v>
-      </c>
-      <c r="K12" s="3">
-        <v>64</v>
-      </c>
-      <c r="L12" s="3">
-        <v>68</v>
-      </c>
-      <c r="M12" s="4">
-        <v>82</v>
-      </c>
-      <c r="N12" s="4">
-        <v>91</v>
-      </c>
-      <c r="O12" s="4">
-        <v>98</v>
-      </c>
-      <c r="P12" s="4">
-        <v>114</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>125</v>
-      </c>
-      <c r="R12" s="4">
-        <v>126</v>
-      </c>
-      <c r="S12" s="4">
-        <v>129</v>
-      </c>
-      <c r="T12" s="3">
-        <v>147</v>
-      </c>
-      <c r="U12" s="3">
-        <v>162</v>
-      </c>
-      <c r="V12" s="3">
-        <v>165</v>
-      </c>
-      <c r="W12" s="3">
-        <v>172</v>
-      </c>
-      <c r="X12" s="3">
-        <v>181</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>185</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>191</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>193</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>195</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>206</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3">
-        <v>219</v>
-      </c>
+      <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="W13" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="X13" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -5798,7 +5655,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3">
         <v>280</v>
@@ -5929,274 +5786,274 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="19" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6448,59 +6305,59 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -6609,42 +6466,42 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -6738,76 +6595,76 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="U9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="X9" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -6932,76 +6789,76 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="U11" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="X11" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -7123,79 +6980,79 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -7220,7 +7077,7 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -7317,44 +7174,44 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="4"/>
       <c r="T15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -7381,7 +7238,7 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6">
         <v>588</v>

--- a/app/src/main/res/raw/blessing_09182020_revised.xlsx
+++ b/app/src/main/res/raw/blessing_09182020_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weatherProject\exercise\MyApplication\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEE718D-DAB7-419A-947F-8DE0523E617A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE855D7-9019-45D7-93BE-3B4A1A316A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13872" yWindow="3552" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="258">
   <si>
     <t>Voice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EC17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -4680,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -5657,98 +5657,94 @@
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3">
-        <v>280</v>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="3">
-        <v>285</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="G15" s="3">
-        <v>317</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3">
-        <v>326</v>
+        <v>46</v>
       </c>
       <c r="I15" s="3">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="J15" s="3">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="K15" s="3">
-        <v>344</v>
+        <v>64</v>
       </c>
       <c r="L15" s="3">
-        <v>348</v>
+        <v>68</v>
       </c>
       <c r="M15" s="3">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="N15" s="3">
-        <v>371</v>
-      </c>
-      <c r="O15" s="3">
-        <v>378</v>
-      </c>
-      <c r="P15" s="3">
-        <v>394</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>405</v>
-      </c>
-      <c r="R15" s="3">
-        <v>406</v>
-      </c>
-      <c r="S15" s="3">
-        <v>409</v>
+        <v>91</v>
+      </c>
+      <c r="O15" s="4">
+        <v>98</v>
+      </c>
+      <c r="P15" s="4">
+        <v>114</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>125</v>
+      </c>
+      <c r="R15" s="4">
+        <v>126</v>
+      </c>
+      <c r="S15" s="4">
+        <v>129</v>
       </c>
       <c r="T15" s="3">
-        <v>427</v>
+        <v>147</v>
       </c>
       <c r="U15" s="3">
-        <v>442</v>
+        <v>162</v>
       </c>
       <c r="V15" s="3">
-        <v>445</v>
+        <v>165</v>
       </c>
       <c r="W15" s="3">
-        <v>452</v>
+        <v>172</v>
       </c>
       <c r="X15" s="3">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="Y15" s="3">
-        <v>465</v>
+        <v>185</v>
       </c>
       <c r="Z15" s="3">
-        <v>471</v>
+        <v>191</v>
       </c>
       <c r="AA15" s="3">
-        <v>473</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>475</v>
+        <v>193</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>195</v>
       </c>
       <c r="AC15" s="3">
-        <v>486</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>494</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>497</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
       <c r="AF15" s="3">
-        <v>499</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6067,8 +6063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AS16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -7240,36 +7236,78 @@
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6">
-        <v>588</v>
-      </c>
-      <c r="C16" s="6">
-        <v>598</v>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
       </c>
       <c r="D16" s="6">
-        <v>611</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
+        <v>23</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>10</v>
+      </c>
+      <c r="M16" s="3">
+        <v>23</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>10</v>
+      </c>
+      <c r="P16" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>10</v>
+      </c>
+      <c r="S16" s="3">
+        <v>23</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>10</v>
+      </c>
+      <c r="V16" s="4">
+        <v>23</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>23</v>
+      </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>

--- a/app/src/main/res/raw/blessing_09182020_revised.xlsx
+++ b/app/src/main/res/raw/blessing_09182020_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weatherProject\exercise\MyApplication\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE855D7-9019-45D7-93BE-3B4A1A316A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2550D34-6EAF-4E93-BD4E-500464753B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13872" yWindow="3552" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="256">
   <si>
     <t>Voice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <t>D. Doing house working</t>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -884,10 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> lodging.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nnrobotface.mp4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,91 +928,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>blessing21_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing22_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing23_1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_EM_Sad01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_RE_Encourage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_RE_Bye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_EM_Happy01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_RE_Cheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_SP_Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_TA_DictateL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_PE_Sorcery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_PE_Puff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_EM_Fear01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_EM_Blush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_PE_Phubbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_LE_ListenSong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_PE_Hug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_SP_Gymnastics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_PE_Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>666_PE_Kiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>blessing20_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blessing21_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blessing22_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blessing23_1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_EM_Sad01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_RE_Encourage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_RE_Bye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_EM_Happy01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_RE_Cheer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_SP_Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_TA_DictateL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_PE_Sorcery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_PE_Puff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_EM_Fear01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_EM_Blush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_PE_Phubbing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_LE_ListenSong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_PE_Hug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_SP_Gymnastics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_PE_Gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>666_PE_Kiss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1493,16 +1485,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1515,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+    <sheetView topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2143,22 +2135,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2173,7 +2165,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -2187,7 +2179,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
@@ -2202,7 +2194,7 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
@@ -2217,16 +2209,16 @@
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BI5" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
@@ -2306,7 +2298,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>9</v>
@@ -2475,97 +2467,97 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
       <c r="AU7" s="3"/>
       <c r="AV7" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AW7" s="3"/>
       <c r="AX7" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AY7" s="3"/>
       <c r="AZ7" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BC7" s="3"/>
       <c r="BD7" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
@@ -2574,7 +2566,7 @@
       <c r="BI7" s="12"/>
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="BL7" s="14"/>
       <c r="BM7" s="14"/>
@@ -2835,187 +2827,187 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="J9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="W9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AH9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AT9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="AL9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT9" s="3" t="s">
+      <c r="AW9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV9" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX9" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB9" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD9" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BE9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BG9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BG9" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="BH9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="BI9" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="BJ9" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="BK9" s="3"/>
       <c r="BL9" s="16"/>
@@ -3093,8 +3085,8 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <v>3</v>
+      <c r="B10" s="3">
+        <v>1</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
@@ -3353,187 +3345,187 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AA11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AC11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AE11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AH11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS11" s="3" t="s">
+      <c r="AT11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AT11" s="3" t="s">
+      <c r="AU11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AU11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD11" s="3" t="s">
+      <c r="BG11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI11" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="BE11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH11" s="3" t="s">
+      <c r="BJ11" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="BI11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="BJ11" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="BK11" s="3"/>
       <c r="BL11" s="16"/>
@@ -3611,8 +3603,8 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
-        <v>3</v>
+      <c r="B12" s="3">
+        <v>1</v>
       </c>
       <c r="C12" s="4">
         <v>9</v>
@@ -3868,131 +3860,131 @@
     </row>
     <row r="13" spans="1:133" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
       <c r="AV13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AY13" s="3"/>
       <c r="AZ13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BA13" s="3"/>
       <c r="BB13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BE13" s="3"/>
       <c r="BF13" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="BG13" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="BI13" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
@@ -4069,10 +4061,10 @@
     </row>
     <row r="14" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4266,10 +4258,10 @@
     </row>
     <row r="15" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>9</v>
@@ -4680,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -4798,88 +4790,88 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="S3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="AC3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
@@ -4890,7 +4882,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
@@ -4905,7 +4897,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3">
         <v>46</v>
@@ -4932,10 +4924,10 @@
         <v>98</v>
       </c>
       <c r="P4" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R4" s="4">
         <v>126</v>
@@ -4944,10 +4936,10 @@
         <v>129</v>
       </c>
       <c r="T4" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U4" s="3">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V4" s="3">
         <v>165</v>
@@ -4982,74 +4974,74 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="AA5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="AC5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF5" s="3"/>
     </row>
@@ -5058,7 +5050,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -5086,8 +5078,8 @@
         <v>98</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3">
-        <v>125</v>
+      <c r="Q6" s="4">
+        <v>124</v>
       </c>
       <c r="R6" s="3">
         <v>126</v>
@@ -5097,7 +5089,7 @@
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V6" s="3">
         <v>165</v>
@@ -5135,40 +5127,40 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -5180,11 +5172,11 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -5203,7 +5195,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H8" s="3">
         <v>46</v>
@@ -5219,14 +5211,14 @@
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3">
-        <v>114</v>
+      <c r="P8" s="4">
+        <v>113</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -5250,101 +5242,101 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="U9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="X9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="Z9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AB9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
+      <c r="B10" s="3">
+        <v>2</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
@@ -5359,7 +5351,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3">
         <v>46</v>
@@ -5386,10 +5378,10 @@
         <v>98</v>
       </c>
       <c r="P10" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R10" s="4">
         <v>126</v>
@@ -5398,10 +5390,10 @@
         <v>129</v>
       </c>
       <c r="T10" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U10" s="3">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V10" s="3">
         <v>165</v>
@@ -5507,84 +5499,84 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
@@ -5614,17 +5606,17 @@
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4">
         <v>129</v>
       </c>
       <c r="T14" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3">
@@ -5655,10 +5647,10 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
@@ -5673,7 +5665,7 @@
         <v>21</v>
       </c>
       <c r="G15" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H15" s="3">
         <v>46</v>
@@ -5700,10 +5692,10 @@
         <v>98</v>
       </c>
       <c r="P15" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R15" s="4">
         <v>126</v>
@@ -5712,10 +5704,10 @@
         <v>129</v>
       </c>
       <c r="T15" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U15" s="3">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V15" s="3">
         <v>165</v>
@@ -5782,43 +5774,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -5826,13 +5818,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
@@ -5851,205 +5843,205 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J3" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="M3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>200</v>
-      </c>
       <c r="M4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="L5" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="L5" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="M5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6063,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AS16"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -6301,59 +6293,59 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -6462,42 +6454,42 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -6591,76 +6583,76 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="F9" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="P9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="S9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="U9" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="R9" s="11" t="s">
+      <c r="V9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="X9" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="Y9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -6780,82 +6772,34 @@
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
     </row>
-    <row r="11" spans="1:45" ht="132" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="6"/>
@@ -6881,78 +6825,30 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3">
-        <v>23</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10</v>
-      </c>
-      <c r="J12" s="3">
-        <v>23</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>10</v>
-      </c>
-      <c r="M12" s="3">
-        <v>23</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>10</v>
-      </c>
-      <c r="P12" s="3">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>10</v>
-      </c>
-      <c r="S12" s="3">
-        <v>23</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>10</v>
-      </c>
-      <c r="V12" s="4">
-        <v>23</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>23</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="6"/>
@@ -6976,79 +6872,79 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="P13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W13" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="X13" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -7073,7 +6969,7 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -7170,44 +7066,44 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="4"/>
       <c r="T15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -7234,7 +7130,7 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>

--- a/app/src/main/res/raw/blessing_09182020_revised.xlsx
+++ b/app/src/main/res/raw/blessing_09182020_revised.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weatherProject\exercise\MyApplication\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2550D34-6EAF-4E93-BD4E-500464753B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E96396-C184-41F4-A9FD-5F910036E6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="256">
   <si>
     <t>Voice</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EC17"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -6056,7 +6056,7 @@
   <dimension ref="A1:AS16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -6374,56 +6374,56 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6">
         <v>23</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3">
         <v>23</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" s="3">
         <v>23</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M6" s="3">
         <v>23</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P6" s="3">
         <v>23</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S6" s="3">
         <v>23</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V6" s="3">
         <v>23</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y6" s="3">
         <v>23</v>
@@ -6519,41 +6519,41 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3"/>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -6680,43 +6680,43 @@
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6">
         <v>23</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3">
         <v>23</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" s="3">
         <v>23</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M10" s="3">
         <v>23</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="3">
         <v>10</v>
@@ -6725,28 +6725,28 @@
         <v>23</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S10" s="3">
         <v>23</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V10" s="4">
         <v>23</v>
       </c>
-      <c r="W10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4">
-        <v>10</v>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>12</v>
       </c>
       <c r="Y10" s="4">
         <v>23</v>
@@ -6772,34 +6772,82 @@
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="132" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="3"/>
+      <c r="B11" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="6"/>
@@ -6825,30 +6873,78 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3">
+        <v>23</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>12</v>
+      </c>
+      <c r="P12" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>12</v>
+      </c>
+      <c r="S12" s="3">
+        <v>23</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>12</v>
+      </c>
+      <c r="V12" s="4">
+        <v>23</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>23</v>
+      </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="6"/>
@@ -6972,34 +7068,34 @@
         <v>36</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6">
         <v>23</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3">
         <v>23</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J14" s="3">
         <v>23</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3">
         <v>10</v>
@@ -7008,37 +7104,37 @@
         <v>23</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P14" s="3">
         <v>23</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S14" s="4">
         <v>23</v>
       </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>12</v>
       </c>
       <c r="V14" s="4">
         <v>23</v>
       </c>
-      <c r="W14" s="4">
-        <v>0</v>
-      </c>
-      <c r="X14" s="4">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>1</v>
+      </c>
+      <c r="X14" s="3">
+        <v>12</v>
       </c>
       <c r="Y14" s="4">
         <v>23</v>
@@ -7133,73 +7229,73 @@
         <v>41</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" s="6">
         <v>23</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3">
         <v>23</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J16" s="3">
         <v>23</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M16" s="3">
         <v>23</v>
       </c>
       <c r="N16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P16" s="3">
         <v>23</v>
       </c>
       <c r="Q16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S16" s="3">
         <v>23</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V16" s="4">
         <v>23</v>
       </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
-        <v>10</v>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+      <c r="X16" s="3">
+        <v>12</v>
       </c>
       <c r="Y16" s="4">
         <v>23</v>
